--- a/1_calculation_scripts/1_2_xenon/results/mie_results_vle_visc_fluid.xlsx
+++ b/1_calculation_scripts/1_2_xenon/results/mie_results_vle_visc_fluid.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>lambda_r</t>
   </si>
@@ -77,7 +77,13 @@
     <t>tcondl_vle_model</t>
   </si>
   <si>
+    <t>tcondl_vle_model_ann</t>
+  </si>
+  <si>
     <t>speed_of_sound_liq_vle_model</t>
+  </si>
+  <si>
+    <t>tcondl_vle_model_vib</t>
   </si>
 </sst>
 </file>
@@ -478,13 +484,13 @@
         <v>0.8288838301045053</v>
       </c>
       <c r="D2">
-        <v>300.1789025786061</v>
+        <v>300.1789025786047</v>
       </c>
       <c r="E2">
-        <v>7343009.112904259</v>
+        <v>7343009.112904066</v>
       </c>
       <c r="F2">
-        <v>8658.483816346483</v>
+        <v>8658.483816346352</v>
       </c>
       <c r="G2">
         <v>4.009259439039099</v>
@@ -500,13 +506,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,8 +552,14 @@
       <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>95.39750748551545</v>
       </c>
@@ -585,59 +597,71 @@
         <v>0.07550105341263126</v>
       </c>
       <c r="M2">
+        <v>0.07550105341263126</v>
+      </c>
+      <c r="N2">
         <v>972.4600318713597</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
-        <v>97.46597610474844</v>
+        <v>97.46597610474841</v>
       </c>
       <c r="B3">
-        <v>60.06534483537686</v>
+        <v>60.06534483537526</v>
       </c>
       <c r="C3">
-        <v>0.07412498294293651</v>
+        <v>0.07412498294293456</v>
       </c>
       <c r="D3">
-        <v>26907.17244131605</v>
+        <v>26907.17244131606</v>
       </c>
       <c r="E3">
-        <v>17161.99874447758</v>
+        <v>17161.9987444776</v>
       </c>
       <c r="F3">
-        <v>16351.67573352871</v>
+        <v>16351.67573352873</v>
       </c>
       <c r="G3">
-        <v>47.16670652376323</v>
+        <v>47.16670652376349</v>
       </c>
       <c r="H3">
-        <v>148.3163533581141</v>
+        <v>148.3163533581144</v>
       </c>
       <c r="I3">
-        <v>9.433762424173083E-10</v>
+        <v>9.433762424173074E-10</v>
       </c>
       <c r="J3">
-        <v>4.25517832089953E-10</v>
+        <v>4.255178320899525E-10</v>
       </c>
       <c r="K3">
-        <v>0.002154142305233571</v>
+        <v>0.002154142305233573</v>
       </c>
       <c r="L3">
-        <v>0.07494752338622927</v>
+        <v>0.07494752338622929</v>
       </c>
       <c r="M3">
-        <v>922.3903462262045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.07494752338622929</v>
+      </c>
+      <c r="N3">
+        <v>922.3903462262037</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
-        <v>99.53444472398141</v>
+        <v>99.53444472398138</v>
       </c>
       <c r="B4">
-        <v>92.91853060236814</v>
+        <v>92.91853060236657</v>
       </c>
       <c r="C4">
-        <v>0.1122885292156679</v>
+        <v>0.112288529215666</v>
       </c>
       <c r="D4">
         <v>26618.40742170784</v>
@@ -649,89 +673,101 @@
         <v>16034.39940020036</v>
       </c>
       <c r="G4">
-        <v>49.02314841836534</v>
+        <v>49.02314841836532</v>
       </c>
       <c r="H4">
-        <v>141.6787497493843</v>
+        <v>141.6787497493845</v>
       </c>
       <c r="I4">
-        <v>9.619271654001878E-10</v>
+        <v>9.619271654001886E-10</v>
       </c>
       <c r="J4">
         <v>4.387838997852163E-10</v>
       </c>
       <c r="K4">
-        <v>0.002162181037640704</v>
+        <v>0.002162181037640702</v>
       </c>
       <c r="L4">
-        <v>0.07447756507534317</v>
+        <v>0.07447756507534316</v>
       </c>
       <c r="M4">
+        <v>0.07447756507534316</v>
+      </c>
+      <c r="N4">
         <v>886.4975121614118</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
-        <v>101.6029133432144</v>
+        <v>101.6029133432143</v>
       </c>
       <c r="B5">
-        <v>140.1975120290994</v>
+        <v>140.1975120290983</v>
       </c>
       <c r="C5">
-        <v>0.1659808119691546</v>
+        <v>0.1659808119691533</v>
       </c>
       <c r="D5">
         <v>26345.48548112815</v>
       </c>
       <c r="E5">
-        <v>16576.06272832894</v>
+        <v>16576.06272832895</v>
       </c>
       <c r="F5">
         <v>15731.40708952952</v>
       </c>
       <c r="G5">
-        <v>49.49679729850792</v>
+        <v>49.49679729850795</v>
       </c>
       <c r="H5">
         <v>134.5335698588574</v>
       </c>
       <c r="I5">
-        <v>9.803200650476569E-10</v>
+        <v>9.803200650476578E-10</v>
       </c>
       <c r="J5">
         <v>4.526451262482684E-10</v>
       </c>
       <c r="K5">
-        <v>0.002161487167383171</v>
+        <v>0.00216148716738317</v>
       </c>
       <c r="L5">
-        <v>0.07408578312710633</v>
+        <v>0.07408578312710631</v>
       </c>
       <c r="M5">
-        <v>859.7457001112866</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.07408578312710631</v>
+      </c>
+      <c r="N5">
+        <v>859.7457001112863</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
-        <v>103.6713819624474</v>
+        <v>103.6713819624473</v>
       </c>
       <c r="B6">
-        <v>206.729220865056</v>
+        <v>206.7292208650535</v>
       </c>
       <c r="C6">
-        <v>0.239877540642977</v>
+        <v>0.2398775406429742</v>
       </c>
       <c r="D6">
         <v>26087.06446608228</v>
       </c>
       <c r="E6">
-        <v>16305.29136723703</v>
+        <v>16305.29136723702</v>
       </c>
       <c r="F6">
         <v>15443.48780121522</v>
       </c>
       <c r="G6">
-        <v>48.92548120141589</v>
+        <v>48.92548120141585</v>
       </c>
       <c r="H6">
         <v>127.1210624281623</v>
@@ -740,71 +776,83 @@
         <v>9.986186074861098E-10</v>
       </c>
       <c r="J6">
-        <v>4.671610950710842E-10</v>
+        <v>4.671610950710836E-10</v>
       </c>
       <c r="K6">
         <v>0.00215162798936538</v>
       </c>
       <c r="L6">
-        <v>0.07376699079306623</v>
+        <v>0.07376699079306621</v>
       </c>
       <c r="M6">
-        <v>839.242119760193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.07376699079306621</v>
+      </c>
+      <c r="N6">
+        <v>839.2421197601932</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>105.7398505816803</v>
       </c>
       <c r="B7">
-        <v>298.45635023316</v>
+        <v>298.4563502331604</v>
       </c>
       <c r="C7">
-        <v>0.3395614927378859</v>
+        <v>0.3395614927378865</v>
       </c>
       <c r="D7">
-        <v>25841.92625449401</v>
+        <v>25841.92625449402</v>
       </c>
       <c r="E7">
-        <v>16049.91647502894</v>
+        <v>16049.91647502895</v>
       </c>
       <c r="F7">
-        <v>15170.98162829907</v>
+        <v>15170.98162829908</v>
       </c>
       <c r="G7">
-        <v>47.58896385756574</v>
+        <v>47.58896385756567</v>
       </c>
       <c r="H7">
-        <v>119.6351489024732</v>
+        <v>119.6351489024735</v>
       </c>
       <c r="I7">
-        <v>1.016886749766339E-09</v>
+        <v>1.016886749766338E-09</v>
       </c>
       <c r="J7">
-        <v>4.823949891900361E-10</v>
+        <v>4.823949891900358E-10</v>
       </c>
       <c r="K7">
-        <v>0.002132274115544313</v>
+        <v>0.002132274115544314</v>
       </c>
       <c r="L7">
         <v>0.07351595425382371</v>
       </c>
       <c r="M7">
-        <v>823.1935129669491</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.07351595425382371</v>
+      </c>
+      <c r="N7">
+        <v>823.1935129669506</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
-        <v>107.8083192009133</v>
+        <v>107.8083192009132</v>
       </c>
       <c r="B8">
-        <v>422.5751071527253</v>
+        <v>422.5751071527301</v>
       </c>
       <c r="C8">
-        <v>0.4715913611915837</v>
+        <v>0.4715913611915896</v>
       </c>
       <c r="D8">
-        <v>25608.96363300845</v>
+        <v>25608.96363300846</v>
       </c>
       <c r="E8">
         <v>15809.91633577126</v>
@@ -813,1351 +861,1549 @@
         <v>14913.87081794803</v>
       </c>
       <c r="G8">
-        <v>45.7151444146839</v>
+        <v>45.71514441468403</v>
       </c>
       <c r="H8">
-        <v>112.2281460828606</v>
+        <v>112.228146082861</v>
       </c>
       <c r="I8">
-        <v>1.035188298696178E-09</v>
+        <v>1.035188298696177E-09</v>
       </c>
       <c r="J8">
-        <v>4.98413730863662E-10</v>
+        <v>4.984137308636613E-10</v>
       </c>
       <c r="K8">
-        <v>0.002103223335831111</v>
+        <v>0.002103223335831115</v>
       </c>
       <c r="L8">
-        <v>0.07332718300112484</v>
+        <v>0.07332718300112487</v>
       </c>
       <c r="M8">
-        <v>810.4203283225055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.07332718300112487</v>
+      </c>
+      <c r="N8">
+        <v>810.4203283225061</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
-        <v>109.8767878201463</v>
+        <v>109.8767878201462</v>
       </c>
       <c r="B9">
-        <v>587.6714489211349</v>
+        <v>587.6714489211294</v>
       </c>
       <c r="C9">
-        <v>0.6435621175295914</v>
+        <v>0.6435621175295857</v>
       </c>
       <c r="D9">
-        <v>25387.16873005983</v>
+        <v>25387.16873005984</v>
       </c>
       <c r="E9">
-        <v>15584.99138350071</v>
+        <v>15584.99138350072</v>
       </c>
       <c r="F9">
-        <v>14671.86033437453</v>
+        <v>14671.86033437455</v>
       </c>
       <c r="G9">
-        <v>43.48666427410517</v>
+        <v>43.48666427410536</v>
       </c>
       <c r="H9">
-        <v>105.0160868740788</v>
+        <v>105.0160868740793</v>
       </c>
       <c r="I9">
-        <v>1.053586572736693E-09</v>
+        <v>1.053586572736691E-09</v>
       </c>
       <c r="J9">
-        <v>5.152881033906123E-10</v>
+        <v>5.15288103390612E-10</v>
       </c>
       <c r="K9">
-        <v>0.002064433887337118</v>
+        <v>0.002064433887337122</v>
       </c>
       <c r="L9">
-        <v>0.0731947870354947</v>
+        <v>0.07319478703549473</v>
       </c>
       <c r="M9">
-        <v>800.1081177185447</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.07319478703549473</v>
+      </c>
+      <c r="N9">
+        <v>800.1081177185456</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
-        <v>111.9452564393793</v>
+        <v>111.9452564393792</v>
       </c>
       <c r="B10">
-        <v>803.8542012543097</v>
+        <v>803.8542012542954</v>
       </c>
       <c r="C10">
-        <v>0.8641565544185936</v>
+        <v>0.864156554418579</v>
       </c>
       <c r="D10">
-        <v>25175.62279782827</v>
+        <v>25175.62279782828</v>
       </c>
       <c r="E10">
-        <v>15374.6335666505</v>
+        <v>15374.63356665052</v>
       </c>
       <c r="F10">
-        <v>14444.4472424356</v>
+        <v>14444.44724243561</v>
       </c>
       <c r="G10">
-        <v>41.047441751111</v>
+        <v>41.04744175111119</v>
       </c>
       <c r="H10">
-        <v>98.08413510949789</v>
+        <v>98.08413510949833</v>
       </c>
       <c r="I10">
-        <v>1.072144160768989E-09</v>
+        <v>1.072144160768988E-09</v>
       </c>
       <c r="J10">
-        <v>5.330928478259603E-10</v>
+        <v>5.330928478259592E-10</v>
       </c>
       <c r="K10">
-        <v>0.002016065036673051</v>
+        <v>0.002016065036673055</v>
       </c>
       <c r="L10">
         <v>0.07311241468823007</v>
       </c>
       <c r="M10">
-        <v>791.67080387746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0.07311241468823007</v>
+      </c>
+      <c r="N10">
+        <v>791.6708038774603</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
-        <v>114.0137250586123</v>
+        <v>114.0137250586121</v>
       </c>
       <c r="B11">
-        <v>1082.883618298256</v>
+        <v>1082.883618298208</v>
       </c>
       <c r="C11">
-        <v>1.143187937365695</v>
+        <v>1.143187937365645</v>
       </c>
       <c r="D11">
-        <v>24973.4871645246</v>
+        <v>24973.48716452461</v>
       </c>
       <c r="E11">
-        <v>15178.18471675124</v>
+        <v>15178.18471675126</v>
       </c>
       <c r="F11">
-        <v>14230.97908869816</v>
+        <v>14230.97908869818</v>
       </c>
       <c r="G11">
-        <v>38.50882334235638</v>
+        <v>38.50882334235637</v>
       </c>
       <c r="H11">
-        <v>91.49176154150409</v>
+        <v>91.49176154150433</v>
       </c>
       <c r="I11">
         <v>1.090922770705769E-09</v>
       </c>
       <c r="J11">
-        <v>5.519067274741454E-10</v>
+        <v>5.519067274741442E-10</v>
       </c>
       <c r="K11">
-        <v>0.001958519927130567</v>
+        <v>0.00195851992713057</v>
       </c>
       <c r="L11">
-        <v>0.07307327541242896</v>
+        <v>0.07307327541242897</v>
       </c>
       <c r="M11">
-        <v>784.6711275475891</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0.07307327541242897</v>
+      </c>
+      <c r="N11">
+        <v>784.67112754759</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
-        <v>116.0821936778452</v>
+        <v>116.0821936778451</v>
       </c>
       <c r="B12">
-        <v>1438.294092152284</v>
+        <v>1438.294092152239</v>
       </c>
       <c r="C12">
-        <v>1.491633901492857</v>
+        <v>1.491633901492812</v>
       </c>
       <c r="D12">
-        <v>24779.99520681549</v>
+        <v>24779.9952068155</v>
       </c>
       <c r="E12">
-        <v>14994.88464352763</v>
+        <v>14994.88464352765</v>
       </c>
       <c r="F12">
-        <v>14030.70200291916</v>
+        <v>14030.70200291918</v>
       </c>
       <c r="G12">
-        <v>35.95517147665258</v>
+        <v>35.95517147665273</v>
       </c>
       <c r="H12">
-        <v>85.27748195770263</v>
+        <v>85.27748195770297</v>
       </c>
       <c r="I12">
         <v>1.109983159048519E-09</v>
       </c>
       <c r="J12">
-        <v>5.718125521770737E-10</v>
+        <v>5.718125521770724E-10</v>
       </c>
       <c r="K12">
-        <v>0.001892482615739501</v>
+        <v>0.001892482615739504</v>
       </c>
       <c r="L12">
         <v>0.07307024152306367</v>
       </c>
       <c r="M12">
+        <v>0.07307024152306367</v>
+      </c>
+      <c r="N12">
         <v>778.7722924558343</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
-        <v>118.1506622970782</v>
+        <v>118.150662297078</v>
       </c>
       <c r="B13">
-        <v>1885.509843985859</v>
+        <v>1885.509843985791</v>
       </c>
       <c r="C13">
-        <v>1.921661875618581</v>
+        <v>1.921661875618514</v>
       </c>
       <c r="D13">
-        <v>24594.44521348325</v>
+        <v>24594.44521348326</v>
       </c>
       <c r="E13">
-        <v>14823.90998356387</v>
+        <v>14823.90998356389</v>
       </c>
       <c r="F13">
-        <v>13842.79954703944</v>
+        <v>13842.79954703946</v>
       </c>
       <c r="G13">
-        <v>33.44880478294964</v>
+        <v>33.44880478294971</v>
       </c>
       <c r="H13">
-        <v>79.46305697298388</v>
+        <v>79.46305697298425</v>
       </c>
       <c r="I13">
-        <v>1.129385132202176E-09</v>
+        <v>1.129385132202174E-09</v>
       </c>
       <c r="J13">
-        <v>5.928971539422081E-10</v>
+        <v>5.928971539422066E-10</v>
       </c>
       <c r="K13">
-        <v>0.001818938996780127</v>
+        <v>0.001818938996780132</v>
       </c>
       <c r="L13">
-        <v>0.07309601346285005</v>
+        <v>0.07309601346285004</v>
       </c>
       <c r="M13">
-        <v>773.707585628355</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.07309601346285004</v>
+      </c>
+      <c r="N13">
+        <v>773.7075856283565</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
-        <v>120.2191309163112</v>
+        <v>120.219130916311</v>
       </c>
       <c r="B14">
-        <v>2441.952545877002</v>
+        <v>2441.95254587696</v>
       </c>
       <c r="C14">
-        <v>2.446646426586418</v>
+        <v>2.446646426586379</v>
       </c>
       <c r="D14">
-        <v>24416.19402989026</v>
+        <v>24416.19402989028</v>
       </c>
       <c r="E14">
-        <v>14664.40496193257</v>
+        <v>14664.40496193259</v>
       </c>
       <c r="F14">
-        <v>13666.42347128566</v>
+        <v>13666.42347128568</v>
       </c>
       <c r="G14">
-        <v>31.03427329857733</v>
+        <v>31.03427329857757</v>
       </c>
       <c r="H14">
-        <v>74.05712158855935</v>
+        <v>74.05712158855981</v>
       </c>
       <c r="I14">
-        <v>1.149187610330384E-09</v>
+        <v>1.149187610330382E-09</v>
       </c>
       <c r="J14">
-        <v>6.152513051134033E-10</v>
+        <v>6.152513051134007E-10</v>
       </c>
       <c r="K14">
-        <v>0.001739171046764942</v>
+        <v>0.001739171046764949</v>
       </c>
       <c r="L14">
-        <v>0.07314332639380905</v>
+        <v>0.07314332639380902</v>
       </c>
       <c r="M14">
-        <v>769.2608434363068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0.07314332639380902</v>
+      </c>
+      <c r="N14">
+        <v>769.260843436307</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
-        <v>122.2875995355442</v>
+        <v>122.287599535544</v>
       </c>
       <c r="B15">
-        <v>3127.139939244663</v>
+        <v>3127.139939244577</v>
       </c>
       <c r="C15">
-        <v>3.081179003455881</v>
+        <v>3.081179003455801</v>
       </c>
       <c r="D15">
-        <v>24244.65138822148</v>
+        <v>24244.65138822149</v>
       </c>
       <c r="E15">
-        <v>14515.50524211476</v>
+        <v>14515.50524211477</v>
       </c>
       <c r="F15">
         <v>13500.7175530287</v>
       </c>
       <c r="G15">
-        <v>28.74199383409741</v>
+        <v>28.74199383409767</v>
       </c>
       <c r="H15">
-        <v>69.05825728710879</v>
+        <v>69.05825728710917</v>
       </c>
       <c r="I15">
-        <v>1.169448744942055E-09</v>
+        <v>1.169448744942057E-09</v>
       </c>
       <c r="J15">
-        <v>6.38969570205767E-10</v>
+        <v>6.389695702057651E-10</v>
       </c>
       <c r="K15">
-        <v>0.001654716577835746</v>
+        <v>0.00165471657783575</v>
       </c>
       <c r="L15">
-        <v>0.07320517265478231</v>
+        <v>0.07320517265478226</v>
       </c>
       <c r="M15">
-        <v>765.2537167619946</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0.07320517265478226</v>
+      </c>
+      <c r="N15">
+        <v>765.2537167619932</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
-        <v>124.3560681547771</v>
+        <v>124.3560681547769</v>
       </c>
       <c r="B16">
-        <v>3962.774638651742</v>
+        <v>3962.774638651642</v>
       </c>
       <c r="C16">
-        <v>3.841070633003274</v>
+        <v>3.841070633003183</v>
       </c>
       <c r="D16">
-        <v>24079.27484143404</v>
+        <v>24079.27484143406</v>
       </c>
       <c r="E16">
-        <v>14376.35598226664</v>
+        <v>14376.35598226665</v>
       </c>
       <c r="F16">
-        <v>13344.83563688938</v>
+        <v>13344.8356368894</v>
       </c>
       <c r="G16">
-        <v>26.59129584297662</v>
+        <v>26.59129584297674</v>
       </c>
       <c r="H16">
-        <v>64.45754621064873</v>
+        <v>64.45754621064908</v>
       </c>
       <c r="I16">
-        <v>1.190226082093682E-09</v>
+        <v>1.190226082093678E-09</v>
       </c>
       <c r="J16">
-        <v>6.641500827767237E-10</v>
+        <v>6.641500827767208E-10</v>
       </c>
       <c r="K16">
-        <v>0.001567292729184442</v>
+        <v>0.001567292729184451</v>
       </c>
       <c r="L16">
         <v>0.07327501491042557</v>
       </c>
       <c r="M16">
-        <v>761.5373242713457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.07327501491042557</v>
+      </c>
+      <c r="N16">
+        <v>761.5373242713468</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
-        <v>126.4245367740101</v>
+        <v>126.4245367740099</v>
       </c>
       <c r="B17">
-        <v>4972.822442135165</v>
+        <v>4972.822442135173</v>
       </c>
       <c r="C17">
-        <v>4.743348179929648</v>
+        <v>4.743348179929664</v>
       </c>
       <c r="D17">
-        <v>23919.5652297794</v>
+        <v>23919.56522977941</v>
       </c>
       <c r="E17">
-        <v>14246.12511705713</v>
+        <v>14246.12511705715</v>
       </c>
       <c r="F17">
-        <v>13197.95489584996</v>
+        <v>13197.95489584998</v>
       </c>
       <c r="G17">
-        <v>24.59294071764251</v>
+        <v>24.59294071764272</v>
       </c>
       <c r="H17">
-        <v>60.24066097395254</v>
+        <v>60.24066097395296</v>
       </c>
       <c r="I17">
-        <v>1.211576763972552E-09</v>
+        <v>1.211576763972549E-09</v>
       </c>
       <c r="J17">
-        <v>6.908942393676481E-10</v>
+        <v>6.908942393676445E-10</v>
       </c>
       <c r="K17">
-        <v>0.001478689690350715</v>
+        <v>0.001478689690350726</v>
       </c>
       <c r="L17">
         <v>0.07334696801617203</v>
       </c>
       <c r="M17">
-        <v>757.9867856451249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.07334696801617203</v>
+      </c>
+      <c r="N17">
+        <v>757.9867856451251</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
-        <v>128.4930053932431</v>
+        <v>128.4930053932429</v>
       </c>
       <c r="B18">
-        <v>6183.57961152367</v>
+        <v>6183.579611523521</v>
       </c>
       <c r="C18">
-        <v>5.806244839094221</v>
+        <v>5.80624483909409</v>
       </c>
       <c r="D18">
-        <v>23765.0626180328</v>
+        <v>23765.06261803282</v>
       </c>
       <c r="E18">
-        <v>14124.0127659854</v>
+        <v>14124.01276598542</v>
       </c>
       <c r="F18">
-        <v>13059.28521489579</v>
+        <v>13059.28521489581</v>
       </c>
       <c r="G18">
-        <v>22.75118152612287</v>
+        <v>22.75118152612296</v>
       </c>
       <c r="H18">
-        <v>56.38954900420846</v>
+        <v>56.3895490042088</v>
       </c>
       <c r="I18">
-        <v>1.233557762612102E-09</v>
+        <v>1.233557762612099E-09</v>
       </c>
       <c r="J18">
-        <v>7.193063036981079E-10</v>
+        <v>7.193063036981036E-10</v>
       </c>
       <c r="K18">
-        <v>0.001390649197185652</v>
+        <v>0.001390649197185662</v>
       </c>
       <c r="L18">
-        <v>0.07341593281289854</v>
+        <v>0.07341593281289853</v>
       </c>
       <c r="M18">
-        <v>754.4976439995398</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.07341593281289853</v>
+      </c>
+      <c r="N18">
+        <v>754.4976439995411</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
-        <v>130.5614740124761</v>
+        <v>130.5614740124758</v>
       </c>
       <c r="B19">
-        <v>7623.728736587525</v>
+        <v>7623.728736587302</v>
       </c>
       <c r="C19">
-        <v>7.049185572854531</v>
+        <v>7.049185572854336</v>
       </c>
       <c r="D19">
-        <v>23615.34264945701</v>
+        <v>23615.34264945702</v>
       </c>
       <c r="E19">
-        <v>14009.25754592526</v>
+        <v>14009.25754592528</v>
       </c>
       <c r="F19">
-        <v>12928.07547560717</v>
+        <v>12928.07547560718</v>
       </c>
       <c r="G19">
-        <v>21.06542889932615</v>
+        <v>21.06542889932629</v>
       </c>
       <c r="H19">
-        <v>52.88377007415769</v>
+        <v>52.88377007415807</v>
       </c>
       <c r="I19">
-        <v>1.25622614051839E-09</v>
+        <v>1.256226140518388E-09</v>
       </c>
       <c r="J19">
-        <v>7.494929159890012E-10</v>
+        <v>7.494929159889981E-10</v>
       </c>
       <c r="K19">
-        <v>0.001304747195514325</v>
+        <v>0.001304747195514334</v>
       </c>
       <c r="L19">
-        <v>0.07347767133537984</v>
+        <v>0.07347767133537986</v>
       </c>
       <c r="M19">
-        <v>750.9834964763742</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.07347767133537986</v>
+      </c>
+      <c r="N19">
+        <v>750.9834964763749</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20">
-        <v>132.629942631709</v>
+        <v>132.6299426317088</v>
       </c>
       <c r="B20">
-        <v>9324.38295190477</v>
+        <v>9324.38295190471</v>
       </c>
       <c r="C20">
-        <v>8.492768243079922</v>
+        <v>8.492768243079883</v>
       </c>
       <c r="D20">
-        <v>23470.01326927395</v>
+        <v>23470.01326927396</v>
       </c>
       <c r="E20">
-        <v>13901.14044673937</v>
+        <v>13901.14044673939</v>
       </c>
       <c r="F20">
-        <v>12803.61740125119</v>
+        <v>12803.6174012512</v>
       </c>
       <c r="G20">
-        <v>19.53158430482817</v>
+        <v>19.53158430482846</v>
       </c>
       <c r="H20">
-        <v>49.70154215881642</v>
+        <v>49.70154215881688</v>
       </c>
       <c r="I20">
-        <v>1.279639334010291E-09</v>
+        <v>1.279639334010289E-09</v>
       </c>
       <c r="J20">
-        <v>7.815625045726315E-10</v>
+        <v>7.815625045726283E-10</v>
       </c>
       <c r="K20">
-        <v>0.001222299644327618</v>
+        <v>0.001222299644327626</v>
       </c>
       <c r="L20">
-        <v>0.07352881950713777</v>
+        <v>0.07352881950713774</v>
       </c>
       <c r="M20">
-        <v>747.3743491665105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.07352881950713774</v>
+      </c>
+      <c r="N20">
+        <v>747.3743491665101</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21">
-        <v>134.698411250942</v>
+        <v>134.6984112509418</v>
       </c>
       <c r="B21">
-        <v>11319.1184307641</v>
+        <v>11319.1184307638</v>
       </c>
       <c r="C21">
-        <v>10.158741213291</v>
+        <v>10.15874121329075</v>
       </c>
       <c r="D21">
-        <v>23328.71177621381</v>
+        <v>23328.71177621383</v>
       </c>
       <c r="E21">
-        <v>13798.98681934119</v>
+        <v>13798.98681934121</v>
       </c>
       <c r="F21">
-        <v>12685.24751246912</v>
+        <v>12685.24751246914</v>
       </c>
       <c r="G21">
-        <v>18.14309583893816</v>
+        <v>18.14309583893825</v>
       </c>
       <c r="H21">
-        <v>46.82054545382963</v>
+        <v>46.82054545382991</v>
       </c>
       <c r="I21">
-        <v>1.303855456062543E-09</v>
+        <v>1.303855456062541E-09</v>
       </c>
       <c r="J21">
-        <v>8.156245998261155E-10</v>
+        <v>8.156245998261115E-10</v>
       </c>
       <c r="K21">
-        <v>0.001144304718712708</v>
+        <v>0.001144304718712717</v>
       </c>
       <c r="L21">
-        <v>0.07356683966939691</v>
+        <v>0.07356683966939689</v>
       </c>
       <c r="M21">
-        <v>743.6153491125307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.07356683966939689</v>
+      </c>
+      <c r="N21">
+        <v>743.6153491125316</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22">
-        <v>136.766879870175</v>
+        <v>136.7668798701747</v>
       </c>
       <c r="B22">
-        <v>13643.99523176662</v>
+        <v>13643.99523176627</v>
       </c>
       <c r="C22">
-        <v>12.06997821064084</v>
+        <v>12.06997821064055</v>
       </c>
       <c r="D22">
-        <v>23191.10216570874</v>
+        <v>23191.10216570876</v>
       </c>
       <c r="E22">
-        <v>13702.16692807817</v>
+        <v>13702.16692807816</v>
       </c>
       <c r="F22">
-        <v>12572.34764613733</v>
+        <v>12572.34764613732</v>
       </c>
       <c r="G22">
-        <v>16.89178495338484</v>
+        <v>16.89178495338497</v>
       </c>
       <c r="H22">
-        <v>44.21852838146511</v>
+        <v>44.2185283814654</v>
       </c>
       <c r="I22">
-        <v>1.328933616371596E-09</v>
+        <v>1.328933616371593E-09</v>
       </c>
       <c r="J22">
-        <v>8.517890539096687E-10</v>
+        <v>8.517890539096643E-10</v>
       </c>
       <c r="K22">
-        <v>0.001071425831398655</v>
+        <v>0.001071425831398664</v>
       </c>
       <c r="L22">
         <v>0.07358992070197565</v>
       </c>
       <c r="M22">
-        <v>739.6656500869414</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.07358992070197565</v>
+      </c>
+      <c r="N22">
+        <v>739.6656500869418</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23">
-        <v>138.835348489408</v>
+        <v>138.8353484894077</v>
       </c>
       <c r="B23">
-        <v>16337.56671685249</v>
+        <v>16337.56671685203</v>
       </c>
       <c r="C23">
-        <v>14.25045123969097</v>
+        <v>14.25045123969061</v>
       </c>
       <c r="D23">
-        <v>23056.87273262698</v>
+        <v>23056.872732627</v>
       </c>
       <c r="E23">
-        <v>13610.09543452997</v>
+        <v>13610.09543452998</v>
       </c>
       <c r="F23">
-        <v>12464.34440516915</v>
+        <v>12464.34440516917</v>
       </c>
       <c r="G23">
-        <v>15.76848584521563</v>
+        <v>15.76848584521579</v>
       </c>
       <c r="H23">
-        <v>41.8737533316625</v>
+        <v>41.87375333166277</v>
       </c>
       <c r="I23">
-        <v>1.354934257228045E-09</v>
+        <v>1.354934257228039E-09</v>
       </c>
       <c r="J23">
-        <v>8.901651737240405E-10</v>
+        <v>8.901651737240351E-10</v>
       </c>
       <c r="K23">
-        <v>0.001004011132747403</v>
+        <v>0.001004011132747411</v>
       </c>
       <c r="L23">
         <v>0.07359683757208504</v>
       </c>
       <c r="M23">
-        <v>735.497254006508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.07359683757208504</v>
+      </c>
+      <c r="N23">
+        <v>735.4972540065088</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24">
-        <v>140.903817108641</v>
+        <v>140.9038171086407</v>
       </c>
       <c r="B24">
-        <v>19440.87789063952</v>
+        <v>19440.87789063899</v>
       </c>
       <c r="C24">
-        <v>16.72520233038664</v>
+        <v>16.72520233038622</v>
       </c>
       <c r="D24">
-        <v>22925.73390520503</v>
+        <v>22925.73390520504</v>
       </c>
       <c r="E24">
-        <v>13522.23010747553</v>
+        <v>13522.23010747554</v>
       </c>
       <c r="F24">
-        <v>12360.70783463734</v>
+        <v>12360.70783463736</v>
       </c>
       <c r="G24">
-        <v>14.7635329516024</v>
+        <v>14.76353295160252</v>
       </c>
       <c r="H24">
-        <v>39.76531412608379</v>
+        <v>39.76531412608404</v>
       </c>
       <c r="I24">
-        <v>1.381919504574537E-09</v>
+        <v>1.381919504574531E-09</v>
       </c>
       <c r="J24">
-        <v>9.308607787904107E-10</v>
+        <v>9.308607787904033E-10</v>
       </c>
       <c r="K24">
-        <v>0.0009421391546120828</v>
+        <v>0.0009421391546120921</v>
       </c>
       <c r="L24">
-        <v>0.07358678458287145</v>
+        <v>0.07358678458287146</v>
       </c>
       <c r="M24">
-        <v>731.0937416393646</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.07358678458287146</v>
+      </c>
+      <c r="N24">
+        <v>731.0937416393657</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25">
-        <v>142.9722857278739</v>
+        <v>142.9722857278736</v>
       </c>
       <c r="B25">
-        <v>22997.45312743064</v>
+        <v>22997.45312743011</v>
       </c>
       <c r="C25">
-        <v>19.52031488222578</v>
+        <v>19.52031488222537</v>
       </c>
       <c r="D25">
-        <v>22797.41628511596</v>
+        <v>22797.41628511599</v>
       </c>
       <c r="E25">
-        <v>13438.06999297473</v>
+        <v>13438.06999297474</v>
       </c>
       <c r="F25">
-        <v>12260.94955872904</v>
+        <v>12260.94955872906</v>
       </c>
       <c r="G25">
-        <v>13.86712629874149</v>
+        <v>13.86712629874157</v>
       </c>
       <c r="H25">
-        <v>37.87335195723918</v>
+        <v>37.87335195723941</v>
       </c>
       <c r="I25">
-        <v>1.409953534356902E-09</v>
+        <v>1.409953534356897E-09</v>
       </c>
       <c r="J25">
-        <v>9.739812002148384E-10</v>
+        <v>9.73981200214831E-10</v>
       </c>
       <c r="K25">
-        <v>0.0008856781369995715</v>
+        <v>0.0008856781369995801</v>
       </c>
       <c r="L25">
         <v>0.07355919731594388</v>
       </c>
       <c r="M25">
-        <v>726.4488654699886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>0.07355919731594388</v>
+      </c>
+      <c r="N25">
+        <v>726.4488654699901</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26">
-        <v>145.0407543471069</v>
+        <v>145.0407543471066</v>
       </c>
       <c r="B26">
-        <v>27053.2738520926</v>
+        <v>27053.27385209205</v>
       </c>
       <c r="C26">
-        <v>22.66288533678301</v>
+        <v>22.6628853367826</v>
       </c>
       <c r="D26">
-        <v>22671.66887148144</v>
+        <v>22671.66887148147</v>
       </c>
       <c r="E26">
-        <v>13357.15322803701</v>
+        <v>13357.15322803703</v>
       </c>
       <c r="F26">
-        <v>12164.6205625048</v>
+        <v>12164.62056250482</v>
       </c>
       <c r="G26">
-        <v>13.06959943300358</v>
+        <v>13.06959943300366</v>
       </c>
       <c r="H26">
-        <v>36.17919192904127</v>
+        <v>36.17919192904154</v>
       </c>
       <c r="I26">
-        <v>1.439102954945561E-09</v>
+        <v>1.439102954945555E-09</v>
       </c>
       <c r="J26">
-        <v>1.019628241292595E-09</v>
+        <v>1.019628241292586E-09</v>
       </c>
       <c r="K26">
-        <v>0.0008343478043986955</v>
+        <v>0.0008343478043987043</v>
       </c>
       <c r="L26">
-        <v>0.07351357746335924</v>
+        <v>0.07351357746335925</v>
       </c>
       <c r="M26">
-        <v>721.5650230833038</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0.07351357746335925</v>
+      </c>
+      <c r="N26">
+        <v>721.5650230833053</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27">
-        <v>147.1092229663399</v>
+        <v>147.1092229663396</v>
       </c>
       <c r="B27">
-        <v>31656.74682317352</v>
+        <v>31656.74682317302</v>
       </c>
       <c r="C27">
-        <v>26.18099587332462</v>
+        <v>26.18099587332427</v>
       </c>
       <c r="D27">
-        <v>22548.2574491507</v>
+        <v>22548.25744915072</v>
       </c>
       <c r="E27">
-        <v>13279.05463990584</v>
+        <v>13279.05463990586</v>
       </c>
       <c r="F27">
-        <v>12071.30876091846</v>
+        <v>12071.30876091848</v>
       </c>
       <c r="G27">
-        <v>12.3616103178356</v>
+        <v>12.36161031783595</v>
       </c>
       <c r="H27">
-        <v>34.66541832271315</v>
+        <v>34.66541832271358</v>
       </c>
       <c r="I27">
-        <v>1.46943720702346E-09</v>
+        <v>1.469437207023456E-09</v>
       </c>
       <c r="J27">
-        <v>1.067899124361389E-09</v>
+        <v>1.06789912436138E-09</v>
       </c>
       <c r="K27">
-        <v>0.0007877755206004666</v>
+        <v>0.0007877755206004741</v>
       </c>
       <c r="L27">
-        <v>0.07344933281915948</v>
+        <v>0.0734493328191595</v>
       </c>
       <c r="M27">
-        <v>716.4516601105749</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0.0734493328191595</v>
+      </c>
+      <c r="N27">
+        <v>716.4516601105732</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28">
-        <v>149.1776915855729</v>
+        <v>149.1776915855725</v>
       </c>
       <c r="B28">
-        <v>36858.66373083428</v>
+        <v>36858.6637308337</v>
       </c>
       <c r="C28">
-        <v>30.10368877927967</v>
+        <v>30.10368877927927</v>
       </c>
       <c r="D28">
-        <v>22426.96312378044</v>
+        <v>22426.96312378046</v>
       </c>
       <c r="E28">
-        <v>13203.3832392927</v>
+        <v>13203.38323929272</v>
       </c>
       <c r="F28">
-        <v>11980.63646378769</v>
+        <v>11980.63646378771</v>
       </c>
       <c r="G28">
-        <v>11.73427187494681</v>
+        <v>11.73427187494704</v>
       </c>
       <c r="H28">
-        <v>33.31590330328194</v>
+        <v>33.31590330328226</v>
       </c>
       <c r="I28">
-        <v>1.50102898291743E-09</v>
+        <v>1.501028982917424E-09</v>
       </c>
       <c r="J28">
-        <v>1.11888545193258E-09</v>
+        <v>1.118885451932572E-09</v>
       </c>
       <c r="K28">
-        <v>0.0007455423656152597</v>
+        <v>0.0007455423656152668</v>
       </c>
       <c r="L28">
-        <v>0.07336564212427468</v>
+        <v>0.07336564212427467</v>
       </c>
       <c r="M28">
-        <v>711.1236676980914</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>0.07336564212427467</v>
+      </c>
+      <c r="N28">
+        <v>711.1236676980911</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29">
-        <v>151.2461602048058</v>
+        <v>151.2461602048055</v>
       </c>
       <c r="B29">
-        <v>42712.15286882177</v>
+        <v>42712.15286882059</v>
       </c>
       <c r="C29">
-        <v>34.46094310094426</v>
+        <v>34.46094310094338</v>
       </c>
       <c r="D29">
-        <v>22307.58098819575</v>
+        <v>22307.58098819577</v>
       </c>
       <c r="E29">
-        <v>13129.77968874659</v>
+        <v>13129.77968874661</v>
       </c>
       <c r="F29">
-        <v>11892.25781818846</v>
+        <v>11892.25781818848</v>
       </c>
       <c r="G29">
-        <v>11.17923572460203</v>
+        <v>11.17923572460214</v>
       </c>
       <c r="H29">
-        <v>32.11580091471713</v>
+        <v>32.11580091471738</v>
       </c>
       <c r="I29">
-        <v>1.533954667903263E-09</v>
+        <v>1.533954667903259E-09</v>
       </c>
       <c r="J29">
-        <v>1.172672212624206E-09</v>
+        <v>1.172672212624197E-09</v>
       </c>
       <c r="K29">
-        <v>0.0007072177332504902</v>
+        <v>0.0007072177332504956</v>
       </c>
       <c r="L29">
         <v>0.0732613516617476</v>
       </c>
       <c r="M29">
-        <v>705.599842201156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>0.0732613516617476</v>
+      </c>
+      <c r="N29">
+        <v>705.5998422011569</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30">
-        <v>153.3146288240388</v>
+        <v>153.3146288240385</v>
       </c>
       <c r="B30">
-        <v>49272.62366977688</v>
+        <v>49272.62366977532</v>
       </c>
       <c r="C30">
-        <v>39.28365413210214</v>
+        <v>39.28365413210098</v>
       </c>
       <c r="D30">
-        <v>22189.91890622745</v>
+        <v>22189.91890622747</v>
       </c>
       <c r="E30">
-        <v>13057.91380566897</v>
+        <v>13057.91380566899</v>
       </c>
       <c r="F30">
-        <v>11805.85628800653</v>
+        <v>11805.85628800655</v>
       </c>
       <c r="G30">
-        <v>10.68874007030491</v>
+        <v>10.68874007030504</v>
       </c>
       <c r="H30">
-        <v>31.05151582439335</v>
+        <v>31.05151582439365</v>
       </c>
       <c r="I30">
-        <v>1.568294806554825E-09</v>
+        <v>1.568294806554822E-09</v>
       </c>
       <c r="J30">
-        <v>1.229336863728819E-09</v>
+        <v>1.229336863728809E-09</v>
       </c>
       <c r="K30">
-        <v>0.0006723831166452742</v>
+        <v>0.0006723831166452803</v>
       </c>
       <c r="L30">
-        <v>0.07313490778356413</v>
+        <v>0.07313490778356416</v>
       </c>
       <c r="M30">
-        <v>699.9014672598519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>0.07313490778356416</v>
+      </c>
+      <c r="N30">
+        <v>699.9014672598523</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31">
-        <v>155.3830974432718</v>
+        <v>155.3830974432714</v>
       </c>
       <c r="B31">
-        <v>56597.70490805015</v>
+        <v>56597.7049080483</v>
       </c>
       <c r="C31">
-        <v>44.60361625125242</v>
+        <v>44.60361625125105</v>
       </c>
       <c r="D31">
-        <v>22073.79640173523</v>
+        <v>22073.79640173525</v>
       </c>
       <c r="E31">
-        <v>12987.48214233256</v>
+        <v>12987.48214233257</v>
       </c>
       <c r="F31">
-        <v>11721.14221317055</v>
+        <v>11721.14221317057</v>
       </c>
       <c r="G31">
-        <v>10.25563050958764</v>
+        <v>10.25563050958776</v>
       </c>
       <c r="H31">
-        <v>30.11065430645044</v>
+        <v>30.11065430645063</v>
       </c>
       <c r="I31">
-        <v>1.604134597746646E-09</v>
+        <v>1.604134597746634E-09</v>
       </c>
       <c r="J31">
-        <v>1.288948522170009E-09</v>
+        <v>1.288948522169996E-09</v>
       </c>
       <c r="K31">
-        <v>0.0006406468448621997</v>
+        <v>0.0006406468448622061</v>
       </c>
       <c r="L31">
-        <v>0.07298432707079019</v>
+        <v>0.07298432707079028</v>
       </c>
       <c r="M31">
-        <v>694.051064182645</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>0.07298432707079028</v>
+      </c>
+      <c r="N31">
+        <v>694.0510641826467</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32">
-        <v>157.4515660625048</v>
+        <v>157.4515660625044</v>
       </c>
       <c r="B32">
-        <v>64747.17737549571</v>
+        <v>64747.17737549356</v>
       </c>
       <c r="C32">
-        <v>50.45350957361529</v>
+        <v>50.45350957361372</v>
       </c>
       <c r="D32">
-        <v>21959.04364186339</v>
+        <v>21959.04364186342</v>
       </c>
       <c r="E32">
-        <v>12918.20567181926</v>
+        <v>12918.20567181928</v>
       </c>
       <c r="F32">
-        <v>11637.85047759933</v>
+        <v>11637.85047759934</v>
       </c>
       <c r="G32">
-        <v>9.873360770467615</v>
+        <v>9.873360770467736</v>
       </c>
       <c r="H32">
-        <v>29.28196333825941</v>
+        <v>29.2819633382596</v>
       </c>
       <c r="I32">
-        <v>1.641564422471532E-09</v>
+        <v>1.641564422471529E-09</v>
       </c>
       <c r="J32">
-        <v>1.351567294016696E-09</v>
+        <v>1.351567294016684E-09</v>
       </c>
       <c r="K32">
-        <v>0.0006116518901409066</v>
+        <v>0.0006116518901409119</v>
       </c>
       <c r="L32">
         <v>0.07280720363182422</v>
       </c>
       <c r="M32">
-        <v>688.0713392761304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>0.07280720363182422</v>
+      </c>
+      <c r="N32">
+        <v>688.0713392761302</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
-        <v>159.5200346817377</v>
+        <v>159.5200346817373</v>
       </c>
       <c r="B33">
-        <v>73782.90182533725</v>
+        <v>73782.90182533636</v>
       </c>
       <c r="C33">
-        <v>56.86689084372348</v>
+        <v>56.86689084372295</v>
       </c>
       <c r="D33">
-        <v>21845.50050475773</v>
+        <v>21845.50050475776</v>
       </c>
       <c r="E33">
         <v>12849.82759836581</v>
       </c>
       <c r="F33">
-        <v>11555.73830442921</v>
+        <v>11555.73830442922</v>
       </c>
       <c r="G33">
-        <v>9.535978913515784</v>
+        <v>9.535978913515889</v>
       </c>
       <c r="H33">
-        <v>28.55526236922064</v>
+        <v>28.55526236922085</v>
       </c>
       <c r="I33">
-        <v>1.680680409214082E-09</v>
+        <v>1.680680409214071E-09</v>
       </c>
       <c r="J33">
-        <v>1.417243769620225E-09</v>
+        <v>1.41724376962021E-09</v>
       </c>
       <c r="K33">
-        <v>0.0005850787632784098</v>
+        <v>0.000585078763278416</v>
       </c>
       <c r="L33">
-        <v>0.0726007511365999</v>
+        <v>0.07260075113659999</v>
       </c>
       <c r="M33">
-        <v>681.9843394990842</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.07260075113659999</v>
+      </c>
+      <c r="N33">
+        <v>681.9843394990858</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
-        <v>161.5885033009707</v>
+        <v>161.5885033009703</v>
       </c>
       <c r="B34">
-        <v>83768.74295905836</v>
+        <v>83768.74295905628</v>
       </c>
       <c r="C34">
-        <v>63.87818895963029</v>
+        <v>63.87818895962885</v>
       </c>
       <c r="D34">
-        <v>21733.01572301713</v>
+        <v>21733.01572301716</v>
       </c>
       <c r="E34">
-        <v>12782.11130261416</v>
+        <v>12782.11130261418</v>
       </c>
       <c r="F34">
-        <v>11474.58318906562</v>
+        <v>11474.58318906564</v>
       </c>
       <c r="G34">
-        <v>9.238103350328682</v>
+        <v>9.238103350328757</v>
       </c>
       <c r="H34">
-        <v>27.92137125746863</v>
+        <v>27.92137125746873</v>
       </c>
       <c r="I34">
-        <v>1.72158504224114E-09</v>
+        <v>1.721585042241129E-09</v>
       </c>
       <c r="J34">
-        <v>1.486018706916588E-09</v>
+        <v>1.486018706916571E-09</v>
       </c>
       <c r="K34">
-        <v>0.0005606451879871244</v>
+        <v>0.0005606451879871302</v>
       </c>
       <c r="L34">
-        <v>0.07236187560302142</v>
+        <v>0.07236187560302149</v>
       </c>
       <c r="M34">
-        <v>675.8108127940018</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0.07236187560302149</v>
+      </c>
+      <c r="N34">
+        <v>675.8108127940031</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
-        <v>163.6569719202037</v>
+        <v>163.6569719202032</v>
       </c>
       <c r="B35">
-        <v>94770.49020328645</v>
+        <v>94770.49020328352</v>
       </c>
       <c r="C35">
-        <v>71.52270549184131</v>
+        <v>71.52270549183926</v>
       </c>
       <c r="D35">
-        <v>21621.44609507784</v>
+        <v>21621.44609507786</v>
       </c>
       <c r="E35">
         <v>12714.83842622087</v>
       </c>
       <c r="F35">
-        <v>11394.18097453872</v>
+        <v>11394.18097453873</v>
       </c>
       <c r="G35">
-        <v>8.974892065257322</v>
+        <v>8.974892065257356</v>
       </c>
       <c r="H35">
-        <v>27.37203701512191</v>
+        <v>27.37203701512199</v>
       </c>
       <c r="I35">
-        <v>1.764387818847844E-09</v>
+        <v>1.764387818847836E-09</v>
       </c>
       <c r="J35">
-        <v>1.557922919708298E-09</v>
+        <v>1.557922919708282E-09</v>
       </c>
       <c r="K35">
-        <v>0.0005381038524960545</v>
+        <v>0.0005381038524960587</v>
       </c>
       <c r="L35">
-        <v>0.07208727379836449</v>
+        <v>0.07208727379836452</v>
       </c>
       <c r="M35">
-        <v>669.5697579052645</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>0.07208727379836452</v>
+      </c>
+      <c r="N35">
+        <v>669.5697579052658</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36">
-        <v>165.7254405394367</v>
+        <v>165.7254405394362</v>
       </c>
       <c r="B36">
-        <v>106855.775989661</v>
+        <v>106855.7759896583</v>
       </c>
       <c r="C36">
-        <v>79.83662054012079</v>
+        <v>79.83662054011891</v>
       </c>
       <c r="D36">
-        <v>21510.6557575459</v>
+        <v>21510.65575754592</v>
       </c>
       <c r="E36">
-        <v>12647.80709578792</v>
+        <v>12647.80709578795</v>
       </c>
       <c r="F36">
-        <v>11314.3440691394</v>
+        <v>11314.34406913942</v>
       </c>
       <c r="G36">
-        <v>8.742007649759806</v>
+        <v>8.742007649759843</v>
       </c>
       <c r="H36">
-        <v>26.89986131999833</v>
+        <v>26.89986131999841</v>
       </c>
       <c r="I36">
-        <v>1.809205962347539E-09</v>
+        <v>1.80920596234753E-09</v>
       </c>
       <c r="J36">
-        <v>1.6329773811199E-09</v>
+        <v>1.632977381119885E-09</v>
       </c>
       <c r="K36">
-        <v>0.0005172391674781776</v>
+        <v>0.0005172391674781816</v>
       </c>
       <c r="L36">
-        <v>0.07177355155454905</v>
+        <v>0.07177355155454909</v>
       </c>
       <c r="M36">
-        <v>663.2781408248849</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>0.07177355155454909</v>
+      </c>
+      <c r="N36">
+        <v>663.2781408248861</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37">
-        <v>167.7939091586697</v>
+        <v>167.7939091586692</v>
       </c>
       <c r="B37">
-        <v>120093.9922125825</v>
+        <v>120093.9922125796</v>
       </c>
       <c r="C37">
-        <v>88.85700426045213</v>
+        <v>88.85700426045017</v>
       </c>
       <c r="D37">
-        <v>21400.51551221616</v>
+        <v>21400.51551221619</v>
       </c>
       <c r="E37">
-        <v>12580.83028280724</v>
+        <v>12580.83028280725</v>
       </c>
       <c r="F37">
-        <v>11234.89980303803</v>
+        <v>11234.89980303806</v>
       </c>
       <c r="G37">
-        <v>8.535580134866018</v>
+        <v>8.535580134866047</v>
       </c>
       <c r="H37">
-        <v>26.49823021033655</v>
+        <v>26.49823021033663</v>
       </c>
       <c r="I37">
-        <v>1.856165198434913E-09</v>
+        <v>1.8561651984349E-09</v>
       </c>
       <c r="J37">
-        <v>1.711193545294309E-09</v>
+        <v>1.711193545294287E-09</v>
       </c>
       <c r="K37">
-        <v>0.0004978636532412644</v>
+        <v>0.0004978636532412689</v>
       </c>
       <c r="L37">
-        <v>0.07141735648145001</v>
+        <v>0.07141735648145009</v>
       </c>
       <c r="M37">
-        <v>656.9507509771398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>0.07141735648145009</v>
+      </c>
+      <c r="N37">
+        <v>656.9507509771418</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38">
-        <v>169.8623777779027</v>
+        <v>169.8623777779022</v>
       </c>
       <c r="B38">
-        <v>134556.2054989984</v>
+        <v>134556.205498996</v>
       </c>
       <c r="C38">
-        <v>98.62183439349479</v>
+        <v>98.62183439349333</v>
       </c>
       <c r="D38">
-        <v>21290.90220215615</v>
+        <v>21290.90220215618</v>
       </c>
       <c r="E38">
-        <v>12513.73429399527</v>
+        <v>12513.73429399529</v>
       </c>
       <c r="F38">
-        <v>11155.68891827735</v>
+        <v>11155.68891827738</v>
       </c>
       <c r="G38">
-        <v>8.352169109354634</v>
+        <v>8.352169109354602</v>
       </c>
       <c r="H38">
-        <v>26.16124695310694</v>
+        <v>26.16124695310693</v>
       </c>
       <c r="I38">
-        <v>1.90540060350251E-09</v>
+        <v>1.905400603502494E-09</v>
       </c>
       <c r="J38">
-        <v>1.792573883190991E-09</v>
+        <v>1.792573883190969E-09</v>
       </c>
       <c r="K38">
-        <v>0.0004798143453982708</v>
+        <v>0.0004798143453982755</v>
       </c>
       <c r="L38">
-        <v>0.07101552054698558</v>
+        <v>0.07101552054698569</v>
       </c>
       <c r="M38">
-        <v>650.6001692430763</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>0.07101552054698569</v>
+      </c>
+      <c r="N38">
+        <v>650.600169243079</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39">
-        <v>171.9308463971356</v>
+        <v>171.9308463971351</v>
       </c>
       <c r="B39">
-        <v>150315.0718828007</v>
+        <v>150315.0718827964</v>
       </c>
       <c r="C39">
-        <v>109.1700201360881</v>
+        <v>109.1700201360852</v>
       </c>
       <c r="D39">
-        <v>21181.69813179816</v>
+        <v>21181.69813179818</v>
       </c>
       <c r="E39">
-        <v>12446.3573848185</v>
+        <v>12446.35738481849</v>
       </c>
       <c r="F39">
         <v>11076.56418496602</v>
       </c>
       <c r="G39">
-        <v>8.188726216293016</v>
+        <v>8.188726216293055</v>
       </c>
       <c r="H39">
-        <v>25.88366874436777</v>
+        <v>25.8836687443678</v>
       </c>
       <c r="I39">
-        <v>1.957057534574073E-09</v>
+        <v>1.957057534574053E-09</v>
       </c>
       <c r="J39">
-        <v>1.877112621490735E-09</v>
+        <v>1.877112621490713E-09</v>
       </c>
       <c r="K39">
-        <v>0.0004629494408055442</v>
+        <v>0.0004629494408055485</v>
       </c>
       <c r="L39">
-        <v>0.07056520959049992</v>
+        <v>0.07056520959050003</v>
       </c>
       <c r="M39">
-        <v>644.2368211536683</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0.07056520959050003</v>
+      </c>
+      <c r="N39">
+        <v>644.2368211536708</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40">
-        <v>173.9993150163686</v>
+        <v>173.9993150163681</v>
       </c>
       <c r="B40">
-        <v>167444.751435022</v>
+        <v>167444.7514350189</v>
       </c>
       <c r="C40">
-        <v>120.5414327194937</v>
+        <v>120.5414327194918</v>
       </c>
       <c r="D40">
-        <v>21072.79052648327</v>
+        <v>21072.79052648331</v>
       </c>
       <c r="E40">
-        <v>12378.54848799479</v>
+        <v>12378.5484879948</v>
       </c>
       <c r="F40">
-        <v>10997.38913550292</v>
+        <v>10997.38913550294</v>
       </c>
       <c r="G40">
-        <v>8.042558809367183</v>
+        <v>8.042558809367234</v>
       </c>
       <c r="H40">
-        <v>25.66084764388825</v>
+        <v>25.66084764388831</v>
       </c>
       <c r="I40">
-        <v>2.011292651758739E-09</v>
+        <v>2.011292651758722E-09</v>
       </c>
       <c r="J40">
-        <v>1.964796667499139E-09</v>
+        <v>1.964796667499115E-09</v>
       </c>
       <c r="K40">
-        <v>0.0004471452921674831</v>
+        <v>0.0004471452921674876</v>
       </c>
       <c r="L40">
-        <v>0.07006407852293958</v>
+        <v>0.07006407852293972</v>
       </c>
       <c r="M40">
-        <v>637.8690912682024</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>0.07006407852293972</v>
+      </c>
+      <c r="N40">
+        <v>637.8690912682042</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41">
-        <v>176.0677836356016</v>
+        <v>176.067783635601</v>
       </c>
       <c r="B41">
-        <v>186020.8233612959</v>
+        <v>186020.8233612905</v>
       </c>
       <c r="C41">
-        <v>132.776943093471</v>
+        <v>132.7769430934675</v>
       </c>
       <c r="D41">
-        <v>20964.07102734275</v>
+        <v>20964.07102734278</v>
       </c>
       <c r="E41">
         <v>12310.16604817061</v>
@@ -2166,39 +2412,45 @@
         <v>10918.03690809974</v>
       </c>
       <c r="G41">
-        <v>7.911295307102124</v>
+        <v>7.911295307102057</v>
       </c>
       <c r="H41">
-        <v>25.48867595118087</v>
+        <v>25.48867595118078</v>
       </c>
       <c r="I41">
-        <v>2.068275045557155E-09</v>
+        <v>2.068275045557142E-09</v>
       </c>
       <c r="J41">
-        <v>2.055606697898188E-09</v>
+        <v>2.055606697898168E-09</v>
       </c>
       <c r="K41">
-        <v>0.0004322937871779871</v>
+        <v>0.0004322937871779901</v>
       </c>
       <c r="L41">
-        <v>0.06951043187037544</v>
+        <v>0.06951043187037553</v>
       </c>
       <c r="M41">
-        <v>631.5034782264983</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>0.06951043187037553</v>
+      </c>
+      <c r="N41">
+        <v>631.5034782265003</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42">
-        <v>178.1362522548345</v>
+        <v>178.136252254834</v>
       </c>
       <c r="B42">
-        <v>206120.2020411567</v>
+        <v>206120.2020411512</v>
       </c>
       <c r="C42">
-        <v>145.9184671652816</v>
+        <v>145.9184671652781</v>
       </c>
       <c r="D42">
-        <v>20855.43521779218</v>
+        <v>20855.4352177922</v>
       </c>
       <c r="E42">
         <v>12241.07695369482</v>
@@ -2207,2444 +2459,2804 @@
         <v>10838.38919061925</v>
       </c>
       <c r="G42">
-        <v>7.79285259453595</v>
+        <v>7.792852594535925</v>
       </c>
       <c r="H42">
-        <v>25.36353608401053</v>
+        <v>25.36353608401055</v>
       </c>
       <c r="I42">
-        <v>2.128187482997391E-09</v>
+        <v>2.128187482997379E-09</v>
       </c>
       <c r="J42">
-        <v>2.14951838545456E-09</v>
+        <v>2.149518385454535E-09</v>
       </c>
       <c r="K42">
-        <v>0.0004183001047359753</v>
+        <v>0.0004183001047359786</v>
       </c>
       <c r="L42">
-        <v>0.06890338836701218</v>
+        <v>0.06890338836701232</v>
       </c>
       <c r="M42">
-        <v>625.1447736941402</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.06890338836701232</v>
+      </c>
+      <c r="N42">
+        <v>625.144773694142</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43">
-        <v>180.2047208740675</v>
+        <v>180.204720874067</v>
       </c>
       <c r="B43">
-        <v>227821.0544502616</v>
+        <v>227821.0544502557</v>
       </c>
       <c r="C43">
-        <v>160.0090191085095</v>
+        <v>160.0090191085057</v>
       </c>
       <c r="D43">
-        <v>20746.78217825921</v>
+        <v>20746.78217825924</v>
       </c>
       <c r="E43">
-        <v>12171.15555636398</v>
+        <v>12171.155556364</v>
       </c>
       <c r="F43">
-        <v>10758.33525573359</v>
+        <v>10758.33525573361</v>
       </c>
       <c r="G43">
-        <v>7.685405677404188</v>
+        <v>7.685405677404286</v>
       </c>
       <c r="H43">
-        <v>25.28225491344637</v>
+        <v>25.28225491344642</v>
       </c>
       <c r="I43">
-        <v>2.191227788484993E-09</v>
+        <v>2.191227788484972E-09</v>
       </c>
       <c r="J43">
-        <v>2.246503735481925E-09</v>
+        <v>2.246503735481896E-09</v>
       </c>
       <c r="K43">
-        <v>0.0004050808173076178</v>
+        <v>0.0004050808173076215</v>
       </c>
       <c r="L43">
-        <v>0.06824304460309057</v>
+        <v>0.06824304460309079</v>
       </c>
       <c r="M43">
-        <v>618.7962520394217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>0.06824304460309079</v>
+      </c>
+      <c r="N43">
+        <v>618.7962520394231</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44">
-        <v>182.2731894933005</v>
+        <v>182.2731894933</v>
       </c>
       <c r="B44">
-        <v>251202.7193781186</v>
+        <v>251202.7193781115</v>
       </c>
       <c r="C44">
-        <v>175.092773340432</v>
+        <v>175.0927733404274</v>
       </c>
       <c r="D44">
-        <v>20638.01406606942</v>
+        <v>20638.01406606945</v>
       </c>
       <c r="E44">
-        <v>12100.28277011965</v>
+        <v>12100.28277011967</v>
       </c>
       <c r="F44">
-        <v>10677.77107854734</v>
+        <v>10677.77107854736</v>
       </c>
       <c r="G44">
-        <v>7.587359684616712</v>
+        <v>7.587359684616819</v>
       </c>
       <c r="H44">
-        <v>25.24206243351306</v>
+        <v>25.24206243351313</v>
       </c>
       <c r="I44">
-        <v>2.257610377464272E-09</v>
+        <v>2.257610377464256E-09</v>
       </c>
       <c r="J44">
-        <v>2.346532502990413E-09</v>
+        <v>2.346532502990385E-09</v>
       </c>
       <c r="K44">
-        <v>0.0003925622979338091</v>
+        <v>0.0003925622979338124</v>
       </c>
       <c r="L44">
-        <v>0.06753062612071542</v>
+        <v>0.06753062612071563</v>
       </c>
       <c r="M44">
-        <v>612.4598608589248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>0.06753062612071563</v>
+      </c>
+      <c r="N44">
+        <v>612.4598608589255</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45">
-        <v>184.3416581125335</v>
+        <v>184.3416581125329</v>
       </c>
       <c r="B45">
-        <v>276345.6288303999</v>
+        <v>276345.628830393</v>
       </c>
       <c r="C45">
-        <v>191.2151358700263</v>
+        <v>191.2151358700219</v>
       </c>
       <c r="D45">
-        <v>20529.0357176836</v>
+        <v>20529.03571768363</v>
       </c>
       <c r="E45">
-        <v>12028.34523988975</v>
+        <v>12028.34523988976</v>
       </c>
       <c r="F45">
-        <v>10596.59852808125</v>
+        <v>10596.59852808127</v>
       </c>
       <c r="G45">
-        <v>7.497324233566755</v>
+        <v>7.49732423356684</v>
       </c>
       <c r="H45">
-        <v>25.24055459192747</v>
+        <v>25.2405545919275</v>
       </c>
       <c r="I45">
-        <v>2.327567963562308E-09</v>
+        <v>2.327567963562287E-09</v>
       </c>
       <c r="J45">
-        <v>2.449573661959141E-09</v>
+        <v>2.44957366195911E-09</v>
       </c>
       <c r="K45">
-        <v>0.0003806793877317478</v>
+        <v>0.0003806793877317513</v>
       </c>
       <c r="L45">
-        <v>0.06676860599261229</v>
+        <v>0.0667686059926125</v>
       </c>
       <c r="M45">
-        <v>606.136405287034</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>0.0667686059926125</v>
+      </c>
+      <c r="N45">
+        <v>606.1364052870351</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46">
-        <v>186.4101267317665</v>
+        <v>186.4101267317659</v>
       </c>
       <c r="B46">
-        <v>303331.2319877703</v>
+        <v>303331.2319877653</v>
       </c>
       <c r="C46">
-        <v>208.4228258443974</v>
+        <v>208.4228258443944</v>
       </c>
       <c r="D46">
-        <v>20419.75427071657</v>
+        <v>20419.7542707166</v>
       </c>
       <c r="E46">
-        <v>11955.23457204085</v>
+        <v>11955.23457204087</v>
       </c>
       <c r="F46">
-        <v>10514.72462432632</v>
+        <v>10514.72462432635</v>
       </c>
       <c r="G46">
-        <v>7.41409011373095</v>
+        <v>7.41409011373099</v>
       </c>
       <c r="H46">
-        <v>25.27566007595925</v>
+        <v>25.27566007595924</v>
       </c>
       <c r="I46">
-        <v>2.401353462889783E-09</v>
+        <v>2.401353462889763E-09</v>
       </c>
       <c r="J46">
-        <v>2.55559689987438E-09</v>
+        <v>2.555596899874352E-09</v>
       </c>
       <c r="K46">
-        <v>0.0003693742816261571</v>
+        <v>0.0003693742816261601</v>
       </c>
       <c r="L46">
-        <v>0.06596076358900765</v>
+        <v>0.06596076358900788</v>
       </c>
       <c r="M46">
-        <v>599.8257213456227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>0.06596076358900788</v>
+      </c>
+      <c r="N46">
+        <v>599.8257213456242</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47">
-        <v>188.4785953509995</v>
+        <v>188.4785953509988</v>
       </c>
       <c r="B47">
-        <v>332241.9220826016</v>
+        <v>332241.9220825941</v>
       </c>
       <c r="C47">
-        <v>226.7639682719026</v>
+        <v>226.763968271898</v>
       </c>
       <c r="D47">
-        <v>20310.07880337596</v>
+        <v>20310.07880337599</v>
       </c>
       <c r="E47">
-        <v>11880.84661821234</v>
+        <v>11880.84661821238</v>
       </c>
       <c r="F47">
-        <v>10432.06085292344</v>
+        <v>10432.06085292347</v>
       </c>
       <c r="G47">
-        <v>7.33660820236161</v>
+        <v>7.336608202361622</v>
       </c>
       <c r="H47">
         <v>25.34561082990451</v>
       </c>
       <c r="I47">
-        <v>2.479242122683687E-09</v>
+        <v>2.479242122683671E-09</v>
       </c>
       <c r="J47">
-        <v>2.66457411336589E-09</v>
+        <v>2.664574113365859E-09</v>
       </c>
       <c r="K47">
-        <v>0.0003585955942496347</v>
+        <v>0.0003585955942496374</v>
       </c>
       <c r="L47">
-        <v>0.06511215386311218</v>
+        <v>0.06511215386311239</v>
       </c>
       <c r="M47">
-        <v>593.5268354295273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>0.06511215386311239</v>
+      </c>
+      <c r="N47">
+        <v>593.5268354295284</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48">
-        <v>190.5470639702324</v>
+        <v>190.5470639702318</v>
       </c>
       <c r="B48">
-        <v>363160.9665519181</v>
+        <v>363160.9665519121</v>
       </c>
       <c r="C48">
-        <v>246.28819907896</v>
+        <v>246.2881990789566</v>
       </c>
       <c r="D48">
-        <v>20199.91998914327</v>
+        <v>20199.91998914331</v>
       </c>
       <c r="E48">
-        <v>11805.08080461635</v>
+        <v>11805.08080461638</v>
       </c>
       <c r="F48">
-        <v>10348.52252987807</v>
+        <v>10348.5225298781</v>
       </c>
       <c r="G48">
-        <v>7.263970497983992</v>
+        <v>7.263970497984015</v>
       </c>
       <c r="H48">
-        <v>25.44891607461953</v>
+        <v>25.44891607461949</v>
       </c>
       <c r="I48">
-        <v>2.561533905591616E-09</v>
+        <v>2.561533905591592E-09</v>
       </c>
       <c r="J48">
-        <v>2.776480884191821E-09</v>
+        <v>2.776480884191791E-09</v>
       </c>
       <c r="K48">
-        <v>0.000348297573082566</v>
+        <v>0.0003482975730825689</v>
       </c>
       <c r="L48">
-        <v>0.06422896372133997</v>
+        <v>0.06422896372134022</v>
       </c>
       <c r="M48">
-        <v>587.2381084288708</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>0.06422896372134022</v>
+      </c>
+      <c r="N48">
+        <v>587.2381084288725</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49">
-        <v>192.6155325894654</v>
+        <v>192.6155325894647</v>
       </c>
       <c r="B49">
-        <v>396172.4408294661</v>
+        <v>396172.4408294556</v>
       </c>
       <c r="C49">
-        <v>267.0467838677517</v>
+        <v>267.0467838677451</v>
       </c>
       <c r="D49">
-        <v>20089.18976468071</v>
+        <v>20089.18976468074</v>
       </c>
       <c r="E49">
-        <v>11727.83949919125</v>
+        <v>11727.83949919128</v>
       </c>
       <c r="F49">
-        <v>10264.0282090639</v>
+        <v>10264.02820906393</v>
       </c>
       <c r="G49">
-        <v>7.195393139794995</v>
+        <v>7.195393139795073</v>
       </c>
       <c r="H49">
-        <v>25.58433960236108</v>
+        <v>25.58433960236113</v>
       </c>
       <c r="I49">
-        <v>2.648556165733538E-09</v>
+        <v>2.648556165733512E-09</v>
       </c>
       <c r="J49">
-        <v>2.891297918706878E-09</v>
+        <v>2.891297918706844E-09</v>
       </c>
       <c r="K49">
-        <v>0.0003384394311366765</v>
+        <v>0.0003384394311366794</v>
       </c>
       <c r="L49">
-        <v>0.06331824820901506</v>
+        <v>0.06331824820901534</v>
       </c>
       <c r="M49">
-        <v>580.9573640230403</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0.06331824820901534</v>
+      </c>
+      <c r="N49">
+        <v>580.9573640230419</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50">
-        <v>194.6840012086984</v>
+        <v>194.6840012086977</v>
       </c>
       <c r="B50">
-        <v>431361.1661531414</v>
+        <v>431361.166153128</v>
       </c>
       <c r="C50">
-        <v>289.0927519884996</v>
+        <v>289.092751988491</v>
       </c>
       <c r="D50">
-        <v>19977.80100908849</v>
+        <v>19977.80100908852</v>
       </c>
       <c r="E50">
-        <v>11649.02740927819</v>
+        <v>11649.02740927822</v>
       </c>
       <c r="F50">
-        <v>10178.49912558987</v>
+        <v>10178.4991255899</v>
       </c>
       <c r="G50">
-        <v>7.130201271433881</v>
+        <v>7.130201271433821</v>
       </c>
       <c r="H50">
-        <v>25.75088012976058</v>
+        <v>25.75088012976041</v>
       </c>
       <c r="I50">
-        <v>2.740666658376463E-09</v>
+        <v>2.74066665837643E-09</v>
       </c>
       <c r="J50">
-        <v>3.009012438047665E-09</v>
+        <v>3.009012438047628E-09</v>
       </c>
       <c r="K50">
-        <v>0.0003289847763720046</v>
+        <v>0.0003289847763720078</v>
       </c>
       <c r="L50">
-        <v>0.06238756265386698</v>
+        <v>0.06238756265386727</v>
       </c>
       <c r="M50">
-        <v>574.6820014093582</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>0.06238756265386727</v>
+      </c>
+      <c r="N50">
+        <v>574.682001409361</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51">
-        <v>196.7524698279313</v>
+        <v>196.7524698279307</v>
       </c>
       <c r="B51">
-        <v>468812.6517857526</v>
+        <v>468812.6517857433</v>
       </c>
       <c r="C51">
-        <v>312.4810478268785</v>
+        <v>312.4810478268731</v>
       </c>
       <c r="D51">
-        <v>19865.66723276108</v>
+        <v>19865.66723276112</v>
       </c>
       <c r="E51">
-        <v>11568.55100274122</v>
+        <v>11568.55100274124</v>
       </c>
       <c r="F51">
-        <v>10091.85866839362</v>
+        <v>10091.85866839364</v>
       </c>
       <c r="G51">
-        <v>7.067815603983913</v>
+        <v>7.06781560398395</v>
       </c>
       <c r="H51">
-        <v>25.94775450654796</v>
+        <v>25.94775450654788</v>
       </c>
       <c r="I51">
-        <v>2.838256931793262E-09</v>
+        <v>2.838256931793227E-09</v>
       </c>
       <c r="J51">
-        <v>3.129619510364294E-09</v>
+        <v>3.129619510364252E-09</v>
       </c>
       <c r="K51">
-        <v>0.0003199011193613109</v>
+        <v>0.0003199011193613141</v>
       </c>
       <c r="L51">
-        <v>0.06144453093462016</v>
+        <v>0.06144453093462052</v>
       </c>
       <c r="M51">
-        <v>568.4090932151962</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>0.06144453093462052</v>
+      </c>
+      <c r="N51">
+        <v>568.4090932151983</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52">
-        <v>198.8209384471643</v>
+        <v>198.8209384471636</v>
       </c>
       <c r="B52">
-        <v>508613.0420784179</v>
+        <v>508613.042078407</v>
       </c>
       <c r="C52">
-        <v>337.268701540521</v>
+        <v>337.2687015405145</v>
       </c>
       <c r="D52">
-        <v>19752.70227419746</v>
+        <v>19752.70227419749</v>
       </c>
       <c r="E52">
-        <v>11486.31794566862</v>
+        <v>11486.31794566864</v>
       </c>
       <c r="F52">
-        <v>10004.03187567401</v>
+        <v>10004.03187567403</v>
       </c>
       <c r="G52">
-        <v>7.007740533887348</v>
+        <v>7.007740533887421</v>
       </c>
       <c r="H52">
-        <v>26.17438359649737</v>
+        <v>26.17438359649735</v>
       </c>
       <c r="I52">
-        <v>2.941756157864893E-09</v>
+        <v>2.941756157864859E-09</v>
       </c>
       <c r="J52">
-        <v>3.253123320338413E-09</v>
+        <v>3.253123320338371E-09</v>
       </c>
       <c r="K52">
-        <v>0.0003111594444090849</v>
+        <v>0.0003111594444090879</v>
       </c>
       <c r="L52">
-        <v>0.06049640645042545</v>
+        <v>0.06049640645042573</v>
       </c>
       <c r="M52">
-        <v>562.1354696413234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>0.06049640645042573</v>
+      </c>
+      <c r="N52">
+        <v>562.135469641325</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53">
-        <v>200.8894070663973</v>
+        <v>200.8894070663966</v>
       </c>
       <c r="B53">
-        <v>550849.0688466763</v>
+        <v>550849.0688466609</v>
       </c>
       <c r="C53">
-        <v>363.5150218643803</v>
+        <v>363.5150218643707</v>
       </c>
       <c r="D53">
-        <v>19638.82000321255</v>
+        <v>19638.82000321259</v>
       </c>
       <c r="E53">
-        <v>11402.23654996783</v>
+        <v>11402.23654996788</v>
       </c>
       <c r="F53">
-        <v>9914.944946980417</v>
+        <v>9914.94494698046</v>
       </c>
       <c r="G53">
-        <v>6.949553675462447</v>
+        <v>6.94955367546246</v>
       </c>
       <c r="H53">
-        <v>26.43038066916743</v>
+        <v>26.43038066916738</v>
       </c>
       <c r="I53">
-        <v>3.051635467486155E-09</v>
+        <v>3.051635467486131E-09</v>
       </c>
       <c r="J53">
-        <v>3.379538374821125E-09</v>
+        <v>3.37953837482109E-09</v>
       </c>
       <c r="K53">
-        <v>0.0003027338324071748</v>
+        <v>0.0003027338324071769</v>
       </c>
       <c r="L53">
-        <v>0.05954968506624186</v>
+        <v>0.05954968506624213</v>
       </c>
       <c r="M53">
-        <v>555.857790044386</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>0.05954968506624213</v>
+      </c>
+      <c r="N53">
+        <v>555.8577900443872</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54">
-        <v>202.9578756856303</v>
+        <v>202.9578756856296</v>
       </c>
       <c r="B54">
-        <v>595608.0095797937</v>
+        <v>595608.0095797762</v>
       </c>
       <c r="C54">
-        <v>391.2818140500869</v>
+        <v>391.2818140500759</v>
       </c>
       <c r="D54">
-        <v>19523.93402907436</v>
+        <v>19523.9340290744</v>
       </c>
       <c r="E54">
-        <v>11316.21522430371</v>
+        <v>11316.21522430374</v>
       </c>
       <c r="F54">
-        <v>9824.524765936489</v>
+        <v>9824.52476593653</v>
       </c>
       <c r="G54">
-        <v>6.892896673969408</v>
+        <v>6.892896673969421</v>
       </c>
       <c r="H54">
-        <v>26.71554216594221</v>
+        <v>26.71554216594207</v>
       </c>
       <c r="I54">
-        <v>3.168412868179135E-09</v>
+        <v>3.168412868179087E-09</v>
       </c>
       <c r="J54">
-        <v>3.508890646614539E-09</v>
+        <v>3.50889064661449E-09</v>
       </c>
       <c r="K54">
-        <v>0.0002946011262205407</v>
+        <v>0.0002946011262205439</v>
       </c>
       <c r="L54">
-        <v>0.05860981732711312</v>
+        <v>0.05860981732711348</v>
       </c>
       <c r="M54">
-        <v>549.5726032257345</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>0.05860981732711348</v>
+      </c>
+      <c r="N54">
+        <v>549.572603225737</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55">
-        <v>205.0263443048633</v>
+        <v>205.0263443048626</v>
       </c>
       <c r="B55">
-        <v>642977.6520648435</v>
+        <v>642977.6520648269</v>
       </c>
       <c r="C55">
-        <v>420.6336265182274</v>
+        <v>420.6336265182172</v>
       </c>
       <c r="D55">
-        <v>19407.95741215401</v>
+        <v>19407.95741215404</v>
       </c>
       <c r="E55">
-        <v>11228.16192192166</v>
+        <v>11228.16192192171</v>
       </c>
       <c r="F55">
-        <v>9732.698427686269</v>
+        <v>9732.698427686306</v>
       </c>
       <c r="G55">
-        <v>6.837467172867615</v>
+        <v>6.837467172867641</v>
       </c>
       <c r="H55">
-        <v>27.02984073138052</v>
+        <v>27.02984073138048</v>
       </c>
       <c r="I55">
-        <v>3.292658834910401E-09</v>
+        <v>3.292658834910369E-09</v>
       </c>
       <c r="J55">
-        <v>3.641218661164202E-09</v>
+        <v>3.641218661164161E-09</v>
       </c>
       <c r="K55">
-        <v>0.0002867406314179269</v>
+        <v>0.0002867406314179292</v>
       </c>
       <c r="L55">
-        <v>0.05768104508862169</v>
+        <v>0.05768104508862197</v>
       </c>
       <c r="M55">
-        <v>543.2763976835967</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>0.05768104508862197</v>
+      </c>
+      <c r="N55">
+        <v>543.2763976835981</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56">
-        <v>207.0948129240963</v>
+        <v>207.0948129240955</v>
       </c>
       <c r="B56">
-        <v>693046.2660774885</v>
+        <v>693046.2660774626</v>
       </c>
       <c r="C56">
-        <v>451.638030393079</v>
+        <v>451.638030393062</v>
       </c>
       <c r="D56">
-        <v>19290.80237772452</v>
+        <v>19290.80237772456</v>
       </c>
       <c r="E56">
-        <v>11137.98357894781</v>
+        <v>11137.98357894783</v>
       </c>
       <c r="F56">
-        <v>9639.392765209941</v>
+        <v>9639.392765209966</v>
       </c>
       <c r="G56">
-        <v>6.783011817524609</v>
+        <v>6.783011817524675</v>
       </c>
       <c r="H56">
-        <v>27.37342043111031</v>
+        <v>27.3734204311102</v>
       </c>
       <c r="I56">
-        <v>3.425002681460862E-09</v>
+        <v>3.425002681460808E-09</v>
       </c>
       <c r="J56">
-        <v>3.776574533222836E-09</v>
+        <v>3.776574533222784E-09</v>
       </c>
       <c r="K56">
-        <v>0.0002791338467697181</v>
+        <v>0.0002791338467697208</v>
       </c>
       <c r="L56">
-        <v>0.05676636301260844</v>
+        <v>0.05676636301260878</v>
       </c>
       <c r="M56">
-        <v>536.9656430285636</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>0.05676636301260878</v>
+      </c>
+      <c r="N56">
+        <v>536.9656430285656</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57">
-        <v>209.1632815433292</v>
+        <v>209.1632815433285</v>
       </c>
       <c r="B57">
-        <v>745902.5828728087</v>
+        <v>745902.5828727864</v>
       </c>
       <c r="C57">
-        <v>484.3659367690408</v>
+        <v>484.3659367690267</v>
       </c>
       <c r="D57">
-        <v>19172.38003057651</v>
+        <v>19172.38003057654</v>
       </c>
       <c r="E57">
-        <v>11045.58553676606</v>
+        <v>11045.58553676612</v>
       </c>
       <c r="F57">
-        <v>9544.533868665709</v>
+        <v>9544.53386866576</v>
       </c>
       <c r="G57">
-        <v>6.72932018668106</v>
+        <v>6.729320186681088</v>
       </c>
       <c r="H57">
-        <v>27.74659411075833</v>
+        <v>27.74659411075825</v>
       </c>
       <c r="I57">
-        <v>3.566139839451033E-09</v>
+        <v>3.566139839450989E-09</v>
       </c>
       <c r="J57">
-        <v>3.915024962413066E-09</v>
+        <v>3.915024962413019E-09</v>
       </c>
       <c r="K57">
-        <v>0.0002717642202012</v>
+        <v>0.0002717642202012023</v>
       </c>
       <c r="L57">
-        <v>0.05586758528251423</v>
+        <v>0.05586758528251452</v>
       </c>
       <c r="M57">
-        <v>530.6368236767518</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>0.05586758528251452</v>
+      </c>
+      <c r="N57">
+        <v>530.6368236767537</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58">
-        <v>211.2317501625622</v>
+        <v>211.2317501625614</v>
       </c>
       <c r="B58">
-        <v>801635.78330027</v>
+        <v>801635.7833002465</v>
       </c>
       <c r="C58">
-        <v>518.8919573383529</v>
+        <v>518.8919573383381</v>
       </c>
       <c r="D58">
-        <v>19052.6000691328</v>
+        <v>19052.60006913284</v>
       </c>
       <c r="E58">
-        <v>10950.87094203558</v>
+        <v>10950.87094203561</v>
       </c>
       <c r="F58">
-        <v>9448.046591867054</v>
+        <v>9448.046591867093</v>
       </c>
       <c r="G58">
-        <v>6.676219552166126</v>
+        <v>6.676219552166114</v>
       </c>
       <c r="H58">
-        <v>28.14984288739048</v>
+        <v>28.14984288739029</v>
       </c>
       <c r="I58">
-        <v>3.71684019609655E-09</v>
+        <v>3.716840196096484E-09</v>
       </c>
       <c r="J58">
-        <v>4.056652198110039E-09</v>
+        <v>4.056652198109985E-09</v>
       </c>
       <c r="K58">
-        <v>0.0002646169268778155</v>
+        <v>0.000264616926877818</v>
       </c>
       <c r="L58">
-        <v>0.05498548647403102</v>
+        <v>0.05498548647403138</v>
       </c>
       <c r="M58">
-        <v>524.2864658328571</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+        <v>0.05498548647403138</v>
+      </c>
+      <c r="N58">
+        <v>524.2864658328602</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59">
-        <v>213.3002187817952</v>
+        <v>213.3002187817944</v>
       </c>
       <c r="B59">
-        <v>860335.495467628</v>
+        <v>860335.495467607</v>
       </c>
       <c r="C59">
-        <v>555.2948149061189</v>
+        <v>555.2948149061062</v>
       </c>
       <c r="D59">
-        <v>18931.37049773752</v>
+        <v>18931.37049773757</v>
       </c>
       <c r="E59">
-        <v>10853.74011782902</v>
+        <v>10853.74011782907</v>
       </c>
       <c r="F59">
-        <v>9349.854039901051</v>
+        <v>9349.854039901107</v>
       </c>
       <c r="G59">
-        <v>6.623570376415817</v>
+        <v>6.623570376415832</v>
       </c>
       <c r="H59">
-        <v>28.58381780657872</v>
+        <v>28.58381780657853</v>
       </c>
       <c r="I59">
-        <v>3.877957670989484E-09</v>
+        <v>3.87795767098941E-09</v>
       </c>
       <c r="J59">
-        <v>4.20155498524561E-09</v>
+        <v>4.201554985245544E-09</v>
       </c>
       <c r="K59">
-        <v>0.0002576786668646476</v>
+        <v>0.0002576786668646507</v>
       </c>
       <c r="L59">
-        <v>0.05411998313488169</v>
+        <v>0.05411998313488207</v>
       </c>
       <c r="M59">
-        <v>517.9111586662478</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>0.05411998313488207</v>
+      </c>
+      <c r="N59">
+        <v>517.9111586662509</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60">
-        <v>215.3686874010282</v>
+        <v>215.3686874010274</v>
       </c>
       <c r="B60">
-        <v>922091.8029882245</v>
+        <v>922091.8029881942</v>
       </c>
       <c r="C60">
-        <v>593.6578113478959</v>
+        <v>593.6578113478762</v>
       </c>
       <c r="D60">
-        <v>18808.59733576068</v>
+        <v>18808.59733576072</v>
       </c>
       <c r="E60">
-        <v>10754.08989924574</v>
+        <v>10754.08989924578</v>
       </c>
       <c r="F60">
-        <v>9249.877031729869</v>
+        <v>9249.877031729906</v>
       </c>
       <c r="G60">
-        <v>6.571262466121069</v>
+        <v>6.571262466121138</v>
       </c>
       <c r="H60">
-        <v>29.04934374590161</v>
+        <v>29.04934374590151</v>
       </c>
       <c r="I60">
-        <v>4.050441248001422E-09</v>
+        <v>4.050441248001368E-09</v>
       </c>
       <c r="J60">
-        <v>4.349849503583765E-09</v>
+        <v>4.349849503583712E-09</v>
       </c>
       <c r="K60">
-        <v>0.0002509374803905838</v>
+        <v>0.0002509374803905861</v>
       </c>
       <c r="L60">
-        <v>0.05327032699058947</v>
+        <v>0.05327032699058978</v>
       </c>
       <c r="M60">
-        <v>511.5075704728016</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
+        <v>0.05327032699058978</v>
+      </c>
+      <c r="N60">
+        <v>511.507570472803</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61">
-        <v>217.4371560202611</v>
+        <v>217.4371560202603</v>
       </c>
       <c r="B61">
-        <v>986995.2649639029</v>
+        <v>986995.264963879</v>
       </c>
       <c r="C61">
-        <v>634.0693617469369</v>
+        <v>634.0693617469221</v>
       </c>
       <c r="D61">
-        <v>18684.1843220925</v>
+        <v>18684.18432209255</v>
       </c>
       <c r="E61">
-        <v>10651.81292667359</v>
+        <v>10651.81292667362</v>
       </c>
       <c r="F61">
-        <v>9148.033531385285</v>
+        <v>9148.03353138531</v>
       </c>
       <c r="G61">
-        <v>6.519211708711268</v>
+        <v>6.51921170871125</v>
       </c>
       <c r="H61">
-        <v>29.54742570123824</v>
+        <v>29.54742570123801</v>
       </c>
       <c r="I61">
-        <v>4.235347722484072E-09</v>
+        <v>4.23534772248399E-09</v>
       </c>
       <c r="J61">
-        <v>4.501670313810332E-09</v>
+        <v>4.501670313810271E-09</v>
       </c>
       <c r="K61">
-        <v>0.0002443825791956896</v>
+        <v>0.0002443825791956923</v>
       </c>
       <c r="L61">
-        <v>0.05243528853863492</v>
+        <v>0.05243528853863524</v>
       </c>
       <c r="M61">
-        <v>505.0724605075865</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
+        <v>0.05243528853863524</v>
+      </c>
+      <c r="N61">
+        <v>505.0724605075897</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62">
-        <v>219.5056246394941</v>
+        <v>219.5056246394933</v>
       </c>
       <c r="B62">
-        <v>1055136.948980365</v>
+        <v>1055136.948980344</v>
       </c>
       <c r="C62">
-        <v>676.6236048051834</v>
+        <v>676.6236048051712</v>
       </c>
       <c r="D62">
-        <v>18558.0326134914</v>
+        <v>18558.03261349145</v>
       </c>
       <c r="E62">
-        <v>10546.79688964413</v>
+        <v>10546.79688964417</v>
       </c>
       <c r="F62">
-        <v>9044.238041063154</v>
+        <v>9044.238041063192</v>
       </c>
       <c r="G62">
-        <v>6.467357326255359</v>
+        <v>6.467357326255409</v>
       </c>
       <c r="H62">
-        <v>30.0792576580128</v>
+        <v>30.07925765801265</v>
       </c>
       <c r="I62">
-        <v>4.433856478514343E-09</v>
+        <v>4.433856478514262E-09</v>
       </c>
       <c r="J62">
-        <v>4.65717132450552E-09</v>
+        <v>4.657171324505454E-09</v>
       </c>
       <c r="K62">
-        <v>0.0002380041927780049</v>
+        <v>0.0002380041927780075</v>
       </c>
       <c r="L62">
-        <v>0.05161331824704422</v>
+        <v>0.05161331824704456</v>
       </c>
       <c r="M62">
-        <v>498.6026870711098</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
+        <v>0.05161331824704456</v>
+      </c>
+      <c r="N62">
+        <v>498.6026870711121</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63">
-        <v>221.5740932587271</v>
+        <v>221.5740932587262</v>
       </c>
       <c r="B63">
-        <v>1126608.478520577</v>
+        <v>1126608.478520553</v>
       </c>
       <c r="C63">
-        <v>721.421101179283</v>
+        <v>721.421101179269</v>
       </c>
       <c r="D63">
-        <v>18430.04047508261</v>
+        <v>18430.04047508266</v>
       </c>
       <c r="E63">
-        <v>10438.9237139413</v>
+        <v>10438.92371394132</v>
       </c>
       <c r="F63">
-        <v>8938.400949041144</v>
+        <v>8938.400949041168</v>
       </c>
       <c r="G63">
-        <v>6.415659588740507</v>
+        <v>6.415659588740544</v>
       </c>
       <c r="H63">
-        <v>30.64623432877223</v>
+        <v>30.64623432877197</v>
       </c>
       <c r="I63">
-        <v>4.647286678867504E-09</v>
+        <v>4.647286678867411E-09</v>
       </c>
       <c r="J63">
-        <v>4.816526794813123E-09</v>
+        <v>4.816526794813056E-09</v>
       </c>
       <c r="K63">
-        <v>0.0002317934286071511</v>
+        <v>0.0002317934286071537</v>
       </c>
       <c r="L63">
-        <v>0.05080267979392182</v>
+        <v>0.05080267979392217</v>
       </c>
       <c r="M63">
-        <v>492.0952123356583</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
+        <v>0.05080267979392217</v>
+      </c>
+      <c r="N63">
+        <v>492.0952123356607</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64">
-        <v>223.64256187796</v>
+        <v>223.6425618779592</v>
       </c>
       <c r="B64">
-        <v>1201502.096333579</v>
+        <v>1201502.096333553</v>
       </c>
       <c r="C64">
-        <v>768.5696331796011</v>
+        <v>768.5696331795853</v>
       </c>
       <c r="D64">
-        <v>18300.10296106429</v>
+        <v>18300.10296106434</v>
       </c>
       <c r="E64">
-        <v>10328.06868428287</v>
+        <v>10328.0686842829</v>
       </c>
       <c r="F64">
-        <v>8830.427824869541</v>
+        <v>8830.427824869566</v>
       </c>
       <c r="G64">
-        <v>6.364097935488582</v>
+        <v>6.364097935488621</v>
       </c>
       <c r="H64">
-        <v>31.2499661351832</v>
+        <v>31.24996613518297</v>
       </c>
       <c r="I64">
-        <v>4.877117335472706E-09</v>
+        <v>4.87711733547261E-09</v>
       </c>
       <c r="J64">
-        <v>4.979932388475389E-09</v>
+        <v>4.979932388475324E-09</v>
       </c>
       <c r="K64">
-        <v>0.0002257421455557523</v>
+        <v>0.0002257421455557547</v>
       </c>
       <c r="L64">
-        <v>0.05000155498981907</v>
+        <v>0.0500015549898194</v>
       </c>
       <c r="M64">
-        <v>485.5471043092541</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
+        <v>0.0500015549898194</v>
+      </c>
+      <c r="N64">
+        <v>485.5471043092565</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65">
-        <v>225.711030497193</v>
+        <v>225.7110304971922</v>
       </c>
       <c r="B65">
-        <v>1279910.74542362</v>
+        <v>1279910.745423596</v>
       </c>
       <c r="C65">
-        <v>818.1851213138226</v>
+        <v>818.1851213138087</v>
       </c>
       <c r="D65">
-        <v>18168.11158334086</v>
+        <v>18168.11158334092</v>
       </c>
       <c r="E65">
-        <v>10214.09949450709</v>
+        <v>10214.09949450711</v>
       </c>
       <c r="F65">
-        <v>8720.218653721293</v>
+        <v>8720.218653721326</v>
       </c>
       <c r="G65">
-        <v>6.31266945973931</v>
+        <v>6.312669459739336</v>
       </c>
       <c r="H65">
-        <v>31.89229793209272</v>
+        <v>31.89229793209245</v>
       </c>
       <c r="I65">
-        <v>5.125010835278182E-09</v>
+        <v>5.125010835278074E-09</v>
       </c>
       <c r="J65">
-        <v>5.147606295967424E-09</v>
+        <v>5.147606295967358E-09</v>
       </c>
       <c r="K65">
-        <v>0.0002198428399306496</v>
+        <v>0.0002198428399306518</v>
       </c>
       <c r="L65">
-        <v>0.04920812319430271</v>
+        <v>0.04920812319430302</v>
       </c>
       <c r="M65">
-        <v>478.9555362525512</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
+        <v>0.04920812319430302</v>
+      </c>
+      <c r="N65">
+        <v>478.9555362525539</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66">
-        <v>227.779499116426</v>
+        <v>227.7794991164251</v>
       </c>
       <c r="B66">
-        <v>1361928.169444821</v>
+        <v>1361928.169444813</v>
       </c>
       <c r="C66">
-        <v>870.3926754889828</v>
+        <v>870.3926754889819</v>
       </c>
       <c r="D66">
-        <v>18033.95396533915</v>
+        <v>18033.95396533922</v>
       </c>
       <c r="E66">
-        <v>10096.87521676886</v>
+        <v>10096.87521676889</v>
       </c>
       <c r="F66">
-        <v>8607.667001121692</v>
+        <v>8607.667001121732</v>
       </c>
       <c r="G66">
-        <v>6.261387717154249</v>
+        <v>6.261387717154264</v>
       </c>
       <c r="H66">
-        <v>32.57533212069828</v>
+        <v>32.57533212069786</v>
       </c>
       <c r="I66">
-        <v>5.392840632324314E-09</v>
+        <v>5.392840632324159E-09</v>
       </c>
       <c r="J66">
-        <v>5.319790442848334E-09</v>
+        <v>5.319790442848253E-09</v>
       </c>
       <c r="K66">
-        <v>0.0002140885435760587</v>
+        <v>0.0002140885435760615</v>
       </c>
       <c r="L66">
-        <v>0.04842061955140187</v>
+        <v>0.04842061955140227</v>
       </c>
       <c r="M66">
-        <v>472.3177837885867</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
+        <v>0.04842061955140227</v>
+      </c>
+      <c r="N66">
+        <v>472.3177837885906</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67">
-        <v>229.847967735659</v>
+        <v>229.8479677356581</v>
       </c>
       <c r="B67">
-        <v>1447649.034387952</v>
+        <v>1447649.03438793</v>
       </c>
       <c r="C67">
-        <v>925.3278013294788</v>
+        <v>925.3278013294673</v>
       </c>
       <c r="D67">
-        <v>17897.51347763145</v>
+        <v>17897.51347763151</v>
       </c>
       <c r="E67">
-        <v>9976.245180816832</v>
+        <v>9976.245180816872</v>
       </c>
       <c r="F67">
-        <v>8492.659098524344</v>
+        <v>8492.659098524389</v>
       </c>
       <c r="G67">
-        <v>6.210281824177888</v>
+        <v>6.210281824177918</v>
       </c>
       <c r="H67">
-        <v>33.30145698626536</v>
+        <v>33.30145698626514</v>
       </c>
       <c r="I67">
-        <v>5.682723990199431E-09</v>
+        <v>5.682723990199305E-09</v>
       </c>
       <c r="J67">
-        <v>5.496751804277778E-09</v>
+        <v>5.496751804277701E-09</v>
       </c>
       <c r="K67">
-        <v>0.0002084727335793239</v>
+        <v>0.0002084727335793264</v>
       </c>
       <c r="L67">
-        <v>0.04763737672584374</v>
+        <v>0.04763737672584409</v>
       </c>
       <c r="M67">
-        <v>465.631219876579</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
+        <v>0.04763737672584409</v>
+      </c>
+      <c r="N67">
+        <v>465.631219876582</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68">
-        <v>231.916436354892</v>
+        <v>231.9164363548911</v>
       </c>
       <c r="B68">
-        <v>1537169.073516865</v>
+        <v>1537169.073516819</v>
       </c>
       <c r="C68">
-        <v>983.1377850392009</v>
+        <v>983.1377850391701</v>
       </c>
       <c r="D68">
-        <v>17758.66885113972</v>
+        <v>17758.66885113979</v>
       </c>
       <c r="E68">
-        <v>9852.047754030647</v>
+        <v>9852.047754030715</v>
       </c>
       <c r="F68">
-        <v>8375.072839370725</v>
+        <v>8375.072839370789</v>
       </c>
       <c r="G68">
-        <v>6.159395816904379</v>
+        <v>6.159395816904444</v>
       </c>
       <c r="H68">
-        <v>34.0733813353658</v>
+        <v>34.07338133536542</v>
       </c>
       <c r="I68">
-        <v>5.997060881788552E-09</v>
+        <v>5.997060881788387E-09</v>
       </c>
       <c r="J68">
-        <v>5.678783848083559E-09</v>
+        <v>5.678783848083464E-09</v>
       </c>
       <c r="K68">
-        <v>0.0002029892531439172</v>
+        <v>0.00020298925314392</v>
       </c>
       <c r="L68">
-        <v>0.0468568544803346</v>
+        <v>0.046856854480335</v>
       </c>
       <c r="M68">
-        <v>458.8933077581453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
+        <v>0.046856854480335</v>
+      </c>
+      <c r="N68">
+        <v>458.8933077581483</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
-        <v>233.984904974125</v>
+        <v>233.984904974124</v>
       </c>
       <c r="B69">
-        <v>1630585.257531447</v>
+        <v>1630585.257531398</v>
       </c>
       <c r="C69">
-        <v>1043.983283523537</v>
+        <v>1043.983283523505</v>
       </c>
       <c r="D69">
-        <v>17617.29376255978</v>
+        <v>17617.29376255985</v>
       </c>
       <c r="E69">
-        <v>9724.109012641711</v>
+        <v>9724.109012641764</v>
       </c>
       <c r="F69">
-        <v>8254.776674414341</v>
+        <v>8254.776674414392</v>
       </c>
       <c r="G69">
-        <v>6.108788245315539</v>
+        <v>6.108788245315563</v>
       </c>
       <c r="H69">
-        <v>34.89417681427947</v>
+        <v>34.89417681427905</v>
       </c>
       <c r="I69">
-        <v>6.338580441368241E-09</v>
+        <v>6.338580441368058E-09</v>
       </c>
       <c r="J69">
-        <v>5.866208132005182E-09</v>
+        <v>5.866208132005093E-09</v>
       </c>
       <c r="K69">
-        <v>0.0001976322432090681</v>
+        <v>0.0001976322432090706</v>
       </c>
       <c r="L69">
-        <v>0.04607766074130435</v>
+        <v>0.04607766074130472</v>
       </c>
       <c r="M69">
-        <v>452.1015919278792</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
+        <v>0.04607766074130472</v>
+      </c>
+      <c r="N69">
+        <v>452.1015919278829</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
-        <v>236.0533735933579</v>
+        <v>236.053373593357</v>
       </c>
       <c r="B70">
-        <v>1727995.991875027</v>
+        <v>1727995.99187499</v>
       </c>
       <c r="C70">
-        <v>1108.040150044196</v>
+        <v>1108.040150044174</v>
       </c>
       <c r="D70">
-        <v>17473.25638513393</v>
+        <v>17473.25638513399</v>
       </c>
       <c r="E70">
-        <v>9592.241294585056</v>
+        <v>9592.241294585114</v>
       </c>
       <c r="F70">
-        <v>8131.628394286392</v>
+        <v>8131.628394286447</v>
       </c>
       <c r="G70">
-        <v>6.058531981569988</v>
+        <v>6.058531981570016</v>
       </c>
       <c r="H70">
-        <v>35.76732968554197</v>
+        <v>35.76732968554156</v>
       </c>
       <c r="I70">
-        <v>6.710396739577989E-09</v>
+        <v>6.710396739577813E-09</v>
       </c>
       <c r="J70">
-        <v>6.059376085039299E-09</v>
+        <v>6.05937608503921E-09</v>
       </c>
       <c r="K70">
-        <v>0.0001923960843944762</v>
+        <v>0.0001923960843944786</v>
       </c>
       <c r="L70">
-        <v>0.04529856698769309</v>
+        <v>0.04529856698769344</v>
       </c>
       <c r="M70">
-        <v>445.2536871293884</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
+        <v>0.04529856698769344</v>
+      </c>
+      <c r="N70">
+        <v>445.2536871293915</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71">
-        <v>238.1218422125909</v>
+        <v>238.12184221259</v>
       </c>
       <c r="B71">
-        <v>1829501.342922607</v>
+        <v>1829501.342922546</v>
       </c>
       <c r="C71">
-        <v>1175.50152938566</v>
+        <v>1175.501529385616</v>
       </c>
       <c r="D71">
-        <v>17326.41889590489</v>
+        <v>17326.41889590495</v>
       </c>
       <c r="E71">
-        <v>9456.241624974065</v>
+        <v>9456.241624974149</v>
       </c>
       <c r="F71">
-        <v>8005.473786677507</v>
+        <v>8005.473786677577</v>
       </c>
       <c r="G71">
-        <v>6.00871422443637</v>
+        <v>6.008714224436386</v>
       </c>
       <c r="H71">
-        <v>36.69680435243931</v>
+        <v>36.69680435243889</v>
       </c>
       <c r="I71">
-        <v>7.116076144752885E-09</v>
+        <v>7.116076144752703E-09</v>
       </c>
       <c r="J71">
-        <v>6.258671008507238E-09</v>
+        <v>6.258671008507148E-09</v>
       </c>
       <c r="K71">
-        <v>0.0001872753488342263</v>
+        <v>0.0001872753488342286</v>
       </c>
       <c r="L71">
-        <v>0.0445185200000387</v>
+        <v>0.04451852000003906</v>
       </c>
       <c r="M71">
-        <v>438.3472653334227</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
+        <v>0.04451852000003906</v>
+      </c>
+      <c r="N71">
+        <v>438.3472653334256</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72">
-        <v>240.1903108318238</v>
+        <v>240.1903108318229</v>
       </c>
       <c r="B72">
-        <v>1935203.294424789</v>
+        <v>1935203.294424776</v>
       </c>
       <c r="C72">
-        <v>1246.580260135439</v>
+        <v>1246.580260135438</v>
       </c>
       <c r="D72">
-        <v>17176.63692795259</v>
+        <v>17176.63692795266</v>
       </c>
       <c r="E72">
-        <v>9315.890006612308</v>
+        <v>9315.890006612359</v>
       </c>
       <c r="F72">
-        <v>7876.145155346525</v>
+        <v>7876.145155346583</v>
       </c>
       <c r="G72">
-        <v>5.959436685072653</v>
+        <v>5.959436685072667</v>
       </c>
       <c r="H72">
-        <v>37.68712159087133</v>
+        <v>37.68712159087094</v>
       </c>
       <c r="I72">
-        <v>7.55971918638676E-09</v>
+        <v>7.559719186386559E-09</v>
       </c>
       <c r="J72">
-        <v>6.464510339999808E-09</v>
+        <v>6.464510339999707E-09</v>
       </c>
       <c r="K72">
-        <v>0.0001822647614368255</v>
+        <v>0.0001822647614368277</v>
       </c>
       <c r="L72">
-        <v>0.04373665129334807</v>
+        <v>0.04373665129334844</v>
       </c>
       <c r="M72">
-        <v>431.3800406162145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
+        <v>0.04373665129334844</v>
+      </c>
+      <c r="N72">
+        <v>431.3800406162179</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73">
-        <v>242.2587794510569</v>
+        <v>242.2587794510559</v>
       </c>
       <c r="B73">
-        <v>2045206.034950113</v>
+        <v>2045206.034950084</v>
       </c>
       <c r="C73">
-        <v>1321.511624800093</v>
+        <v>1321.511624800078</v>
       </c>
       <c r="D73">
-        <v>17023.75895265414</v>
+        <v>17023.75895265421</v>
       </c>
       <c r="E73">
-        <v>9170.947570810347</v>
+        <v>9170.947570810378</v>
       </c>
       <c r="F73">
-        <v>7743.459688829756</v>
+        <v>7743.459688829793</v>
       </c>
       <c r="G73">
-        <v>5.910815942198602</v>
+        <v>5.910815942198664</v>
       </c>
       <c r="H73">
-        <v>38.74345532831681</v>
+        <v>38.74345532831617</v>
       </c>
       <c r="I73">
-        <v>8.046060706708967E-09</v>
+        <v>8.046060706708695E-09</v>
       </c>
       <c r="J73">
-        <v>6.677348233325358E-09</v>
+        <v>6.677348233325257E-09</v>
       </c>
       <c r="K73">
-        <v>0.0001773591700673987</v>
+        <v>0.000177359170067401</v>
       </c>
       <c r="L73">
-        <v>0.04295228495304839</v>
+        <v>0.04295228495304876</v>
       </c>
       <c r="M73">
-        <v>424.349751823957</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
+        <v>0.04295228495304876</v>
+      </c>
+      <c r="N73">
+        <v>424.3497518239602</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74">
-        <v>244.3272480702899</v>
+        <v>244.3272480702889</v>
       </c>
       <c r="B74">
-        <v>2159616.276039952</v>
+        <v>2159616.276039887</v>
       </c>
       <c r="C74">
-        <v>1400.556490386434</v>
+        <v>1400.556490386387</v>
       </c>
       <c r="D74">
-        <v>16867.62557246241</v>
+        <v>16867.62557246248</v>
       </c>
       <c r="E74">
-        <v>9021.154588870028</v>
+        <v>9021.154588870126</v>
       </c>
       <c r="F74">
-        <v>7607.217668809148</v>
+        <v>7607.217668809236</v>
       </c>
       <c r="G74">
-        <v>5.862983957434423</v>
+        <v>5.862983957434444</v>
       </c>
       <c r="H74">
-        <v>39.8717529755308</v>
+        <v>39.87175297553023</v>
       </c>
       <c r="I74">
-        <v>8.580593257353561E-09</v>
+        <v>8.580593257353294E-09</v>
       </c>
       <c r="J74">
-        <v>6.89767852079049E-09</v>
+        <v>6.897678520790377E-09</v>
       </c>
       <c r="K74">
-        <v>0.0001725535240911334</v>
+        <v>0.0001725535240911357</v>
       </c>
       <c r="L74">
-        <v>0.04216494410194412</v>
+        <v>0.04216494410194447</v>
       </c>
       <c r="M74">
-        <v>417.2541428829173</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
+        <v>0.04216494410194447</v>
+      </c>
+      <c r="N74">
+        <v>417.2541428829206</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75">
-        <v>246.3957166895228</v>
+        <v>246.3957166895218</v>
       </c>
       <c r="B75">
-        <v>2278543.599186863</v>
+        <v>2278543.599186811</v>
       </c>
       <c r="C75">
-        <v>1484.004881618879</v>
+        <v>1484.004881618844</v>
       </c>
       <c r="D75">
-        <v>16708.06869872311</v>
+        <v>16708.06869872319</v>
       </c>
       <c r="E75">
-        <v>8866.228353106326</v>
+        <v>8866.228353106404</v>
       </c>
       <c r="F75">
-        <v>7467.200512503354</v>
+        <v>7467.200512503427</v>
       </c>
       <c r="G75">
-        <v>5.816088744282762</v>
+        <v>5.816088744282779</v>
       </c>
       <c r="H75">
-        <v>41.07888587347248</v>
+        <v>41.07888587347185</v>
       </c>
       <c r="I75">
-        <v>9.169720288321734E-09</v>
+        <v>9.169720288321418E-09</v>
       </c>
       <c r="J75">
-        <v>7.126038141668912E-09</v>
+        <v>7.126038141668788E-09</v>
       </c>
       <c r="K75">
-        <v>0.0001678428606398098</v>
+        <v>0.0001678428606398123</v>
       </c>
       <c r="L75">
-        <v>0.04137435584057757</v>
+        <v>0.04137435584057799</v>
       </c>
       <c r="M75">
-        <v>410.0909405928451</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
+        <v>0.04137435584057799</v>
+      </c>
+      <c r="N75">
+        <v>410.0909405928489</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76">
-        <v>248.4641853087558</v>
+        <v>248.4641853087548</v>
       </c>
       <c r="B76">
-        <v>2402100.827308896</v>
+        <v>2402100.827308812</v>
       </c>
       <c r="C76">
-        <v>1572.180024307754</v>
+        <v>1572.180024307688</v>
       </c>
       <c r="D76">
-        <v>16544.91058117991</v>
+        <v>16544.91058117999</v>
       </c>
       <c r="E76">
-        <v>8705.860949866686</v>
+        <v>8705.860949866787</v>
       </c>
       <c r="F76">
-        <v>7323.168651506959</v>
+        <v>7323.168651507041</v>
       </c>
       <c r="G76">
-        <v>5.770295187159245</v>
+        <v>5.770295187159249</v>
       </c>
       <c r="H76">
-        <v>42.37283851617725</v>
+        <v>42.37283851617666</v>
       </c>
       <c r="I76">
-        <v>9.820947857115953E-09</v>
+        <v>9.820947857115629E-09</v>
       </c>
       <c r="J76">
-        <v>7.363011144049605E-09</v>
+        <v>7.363011144049487E-09</v>
       </c>
       <c r="K76">
-        <v>0.000163222297859791</v>
+        <v>0.0001632222978597932</v>
       </c>
       <c r="L76">
-        <v>0.04058045421404036</v>
+        <v>0.04058045421404075</v>
       </c>
       <c r="M76">
-        <v>402.8578297206561</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
+        <v>0.04058045421404075</v>
+      </c>
+      <c r="N76">
+        <v>402.8578297206599</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77">
-        <v>250.5326539279888</v>
+        <v>250.5326539279878</v>
       </c>
       <c r="B77">
-        <v>2530404.412764795</v>
+        <v>2530404.412764716</v>
       </c>
       <c r="C77">
-        <v>1665.442884719079</v>
+        <v>1665.442884719017</v>
       </c>
       <c r="D77">
-        <v>16377.96264540506</v>
+        <v>16377.96264540515</v>
       </c>
       <c r="E77">
-        <v>8539.716967963956</v>
+        <v>8539.716967964056</v>
       </c>
       <c r="F77">
-        <v>7174.859263131104</v>
+        <v>7174.859263131189</v>
       </c>
       <c r="G77">
-        <v>5.725786010302132</v>
+        <v>5.725786010302093</v>
       </c>
       <c r="H77">
-        <v>43.76294806771309</v>
+        <v>43.76294806771217</v>
       </c>
       <c r="I77">
-        <v>1.054312660779366E-08</v>
+        <v>1.054312660779323E-08</v>
       </c>
       <c r="J77">
-        <v>7.609233398464101E-09</v>
+        <v>7.609233398463967E-09</v>
       </c>
       <c r="K77">
-        <v>0.0001586870342620465</v>
+        <v>0.0001586870342620488</v>
       </c>
       <c r="L77">
-        <v>0.039783380556292</v>
+        <v>0.03978338055629245</v>
       </c>
       <c r="M77">
-        <v>395.5524251855447</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
+        <v>0.03978338055629245</v>
+      </c>
+      <c r="N77">
+        <v>395.5524251855493</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78">
-        <v>252.6011225472218</v>
+        <v>252.6011225472207</v>
       </c>
       <c r="B78">
-        <v>2663574.828639544</v>
+        <v>2663574.828639522</v>
       </c>
       <c r="C78">
-        <v>1764.197207907889</v>
+        <v>1764.197207907885</v>
       </c>
       <c r="D78">
-        <v>16207.02408052461</v>
+        <v>16207.0240805247</v>
       </c>
       <c r="E78">
-        <v>8367.431217275987</v>
+        <v>8367.431217276035</v>
       </c>
       <c r="F78">
-        <v>7021.983892143811</v>
+        <v>7021.983892143865</v>
       </c>
       <c r="G78">
-        <v>5.682762900761719</v>
+        <v>5.682762900761743</v>
       </c>
       <c r="H78">
-        <v>45.26020962875424</v>
+        <v>45.26020962875351</v>
       </c>
       <c r="I78">
-        <v>1.1346760004998E-08</v>
+        <v>1.134676000499752E-08</v>
       </c>
       <c r="J78">
-        <v>7.86539820368274E-09</v>
+        <v>7.865398203682594E-09</v>
       </c>
       <c r="K78">
-        <v>0.0001542323531119886</v>
+        <v>0.000154232353111991</v>
       </c>
       <c r="L78">
-        <v>0.03898348044147042</v>
+        <v>0.0389834804414709</v>
       </c>
       <c r="M78">
-        <v>388.1722410832206</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
+        <v>0.0389834804414709</v>
+      </c>
+      <c r="N78">
+        <v>388.1722410832252</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79">
-        <v>254.6695911664547</v>
+        <v>254.6695911664536</v>
       </c>
       <c r="B79">
-        <v>2801736.942361603</v>
+        <v>2801736.942361553</v>
       </c>
       <c r="C79">
-        <v>1868.895017769469</v>
+        <v>1868.895017769438</v>
       </c>
       <c r="D79">
-        <v>16031.88010096292</v>
+        <v>16031.88010096302</v>
       </c>
       <c r="E79">
-        <v>8188.606577714226</v>
+        <v>8188.606577714301</v>
       </c>
       <c r="F79">
-        <v>6864.226034388943</v>
+        <v>6864.226034389017</v>
       </c>
       <c r="G79">
-        <v>5.641447795634275</v>
+        <v>5.641447795634296</v>
       </c>
       <c r="H79">
-        <v>46.87766820605517</v>
+        <v>46.8776682060541</v>
       </c>
       <c r="I79">
-        <v>1.224440081778914E-08</v>
+        <v>1.22444008177886E-08</v>
       </c>
       <c r="J79">
-        <v>8.132263021991213E-09</v>
+        <v>8.132263021991069E-09</v>
       </c>
       <c r="K79">
-        <v>0.0001498536305553737</v>
+        <v>0.0001498536305553759</v>
       </c>
       <c r="L79">
-        <v>0.03818129642476462</v>
+        <v>0.03818129642476505</v>
       </c>
       <c r="M79">
-        <v>380.7146562145363</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
+        <v>0.03818129642476505</v>
+      </c>
+      <c r="N79">
+        <v>380.7146562145404</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80">
-        <v>256.7380597856877</v>
+        <v>256.7380597856867</v>
       </c>
       <c r="B80">
-        <v>2945020.339816732</v>
+        <v>2945020.339816661</v>
       </c>
       <c r="C80">
-        <v>1980.042475600788</v>
+        <v>1980.042475600731</v>
       </c>
       <c r="D80">
-        <v>15852.2997805612</v>
+        <v>15852.29978056131</v>
       </c>
       <c r="E80">
-        <v>8002.812162399925</v>
+        <v>8002.812162400003</v>
       </c>
       <c r="F80">
-        <v>6701.238803365213</v>
+        <v>6701.238803365285</v>
       </c>
       <c r="G80">
-        <v>5.602084352262599</v>
+        <v>5.602084352262593</v>
       </c>
       <c r="H80">
-        <v>48.63092612871413</v>
+        <v>48.63092612871289</v>
       </c>
       <c r="I80">
-        <v>1.325116649190429E-08</v>
+        <v>1.325116649190363E-08</v>
       </c>
       <c r="J80">
-        <v>8.410657659165079E-09</v>
+        <v>8.410657659164929E-09</v>
       </c>
       <c r="K80">
-        <v>0.0001455463458580351</v>
+        <v>0.0001455463458580376</v>
       </c>
       <c r="L80">
-        <v>0.03737755577679664</v>
+        <v>0.03737755577679709</v>
       </c>
       <c r="M80">
-        <v>373.176875625664</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
+        <v>0.03737755577679709</v>
+      </c>
+      <c r="N80">
+        <v>373.1768756256689</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81">
-        <v>258.8065284049207</v>
+        <v>258.8065284049196</v>
       </c>
       <c r="B81">
-        <v>3093559.552919311</v>
+        <v>3093559.552919236</v>
       </c>
       <c r="C81">
-        <v>2098.205891382125</v>
+        <v>2098.205891382064</v>
       </c>
       <c r="D81">
-        <v>15668.03332239863</v>
+        <v>15668.03332239872</v>
       </c>
       <c r="E81">
-        <v>7809.582064040312</v>
+        <v>7809.582064040407</v>
       </c>
       <c r="F81">
-        <v>6532.642870988557</v>
+        <v>6532.642870988636</v>
       </c>
       <c r="G81">
-        <v>5.564939632772164</v>
+        <v>5.564939632772178</v>
       </c>
       <c r="H81">
-        <v>50.53880587662956</v>
+        <v>50.53880587662869</v>
       </c>
       <c r="I81">
-        <v>1.438541666771753E-08</v>
+        <v>1.438541666771697E-08</v>
       </c>
       <c r="J81">
-        <v>8.701494312225898E-09</v>
+        <v>8.701494312225756E-09</v>
       </c>
       <c r="K81">
-        <v>0.0001413060917174057</v>
+        <v>0.0001413060917174078</v>
       </c>
       <c r="L81">
-        <v>0.03657315249577906</v>
+        <v>0.03657315249577945</v>
       </c>
       <c r="M81">
-        <v>365.555887373876</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
+        <v>0.03657315249577945</v>
+      </c>
+      <c r="N81">
+        <v>365.5558873738797</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82">
-        <v>260.8749970241536</v>
+        <v>260.8749970241526</v>
       </c>
       <c r="B82">
-        <v>3247494.122858448</v>
+        <v>3247494.122858419</v>
       </c>
       <c r="C82">
-        <v>2224.017530437553</v>
+        <v>2224.017530437547</v>
       </c>
       <c r="D82">
-        <v>15478.80857847916</v>
+        <v>15478.80857847927</v>
       </c>
       <c r="E82">
-        <v>7608.41506009082</v>
+        <v>7608.41506009087</v>
       </c>
       <c r="F82">
-        <v>6358.024967513658</v>
+        <v>6358.024967513712</v>
       </c>
       <c r="G82">
-        <v>5.53030605339779</v>
+        <v>5.530306053397812</v>
       </c>
       <c r="H82">
-        <v>52.62422474268307</v>
+        <v>52.62422474268188</v>
       </c>
       <c r="I82">
-        <v>1.566965482739588E-08</v>
+        <v>1.566965482739513E-08</v>
       </c>
       <c r="J82">
-        <v>9.005780059475207E-09</v>
+        <v>9.005780059475048E-09</v>
       </c>
       <c r="K82">
-        <v>0.0001371285820485548</v>
+        <v>0.000137128582048557</v>
       </c>
       <c r="L82">
-        <v>0.03576912300594653</v>
+        <v>0.03576912300594697</v>
       </c>
       <c r="M82">
-        <v>357.8484132095015</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
+        <v>0.03576912300594697</v>
+      </c>
+      <c r="N82">
+        <v>357.8484132095057</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83">
-        <v>262.9434656433867</v>
+        <v>262.9434656433855</v>
       </c>
       <c r="B83">
-        <v>3406968.403797522</v>
+        <v>3406968.403797484</v>
       </c>
       <c r="C83">
-        <v>2358.180647298448</v>
+        <v>2358.180647298438</v>
       </c>
       <c r="D83">
-        <v>15284.32656321553</v>
+        <v>15284.32656321565</v>
       </c>
       <c r="E83">
-        <v>7398.775771296905</v>
+        <v>7398.775771296972</v>
       </c>
       <c r="F83">
-        <v>6176.937340732737</v>
+        <v>6176.937340732808</v>
       </c>
       <c r="G83">
-        <v>5.498503678240031</v>
+        <v>5.498503678240044</v>
       </c>
       <c r="H83">
-        <v>54.91536235987438</v>
+        <v>54.915362359873</v>
       </c>
       <c r="I83">
-        <v>1.713174435356884E-08</v>
+        <v>1.713174435356792E-08</v>
       </c>
       <c r="J83">
-        <v>9.324632583168828E-09</v>
+        <v>9.324632583168638E-09</v>
       </c>
       <c r="K83">
-        <v>0.0001330096539083275</v>
+        <v>0.0001330096539083298</v>
       </c>
       <c r="L83">
-        <v>0.03496661509561505</v>
+        <v>0.0349666150956155</v>
       </c>
       <c r="M83">
-        <v>350.0508509636369</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
+        <v>0.0349666150956155</v>
+      </c>
+      <c r="N83">
+        <v>350.0508509636417</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84">
-        <v>265.0119342626197</v>
+        <v>265.0119342626185</v>
       </c>
       <c r="B84">
-        <v>3572130.977101089</v>
+        <v>3572130.977100975</v>
       </c>
       <c r="C84">
-        <v>2501.472908987372</v>
+        <v>2501.472908987262</v>
       </c>
       <c r="D84">
-        <v>15084.25560252375</v>
+        <v>15084.25560252387</v>
       </c>
       <c r="E84">
-        <v>7180.097871142736</v>
+        <v>7180.097871142883</v>
       </c>
       <c r="F84">
-        <v>5988.898695709715</v>
+        <v>5988.898695709835</v>
       </c>
       <c r="G84">
-        <v>5.46988298208666</v>
+        <v>5.469882982086685</v>
       </c>
       <c r="H84">
-        <v>57.44723971870627</v>
+        <v>57.44723971870492</v>
       </c>
       <c r="I84">
-        <v>1.880657291428413E-08</v>
+        <v>1.880657291428314E-08</v>
       </c>
       <c r="J84">
-        <v>9.659300228260249E-09</v>
+        <v>9.659300228260047E-09</v>
       </c>
       <c r="K84">
-        <v>0.0001289452592267586</v>
+        <v>0.000128945259226761</v>
       </c>
       <c r="L84">
-        <v>0.03416684977965644</v>
+        <v>0.03416684977965691</v>
       </c>
       <c r="M84">
-        <v>342.1592049296663</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
+        <v>0.03416684977965691</v>
+      </c>
+      <c r="N84">
+        <v>342.1592049296708</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85">
-        <v>267.0804028818526</v>
+        <v>267.0804028818515</v>
       </c>
       <c r="B85">
-        <v>3743133.505258253</v>
+        <v>3743133.505258064</v>
       </c>
       <c r="C85">
-        <v>2654.747071481186</v>
+        <v>2654.747071480965</v>
       </c>
       <c r="D85">
-        <v>14878.22360937553</v>
+        <v>14878.2236093756</v>
       </c>
       <c r="E85">
-        <v>6951.78996452253</v>
+        <v>6951.789964522773</v>
       </c>
       <c r="F85">
-        <v>5793.397220400515</v>
+        <v>5793.397220400693</v>
       </c>
       <c r="G85">
-        <v>5.444828276811741</v>
+        <v>5.444828276811776</v>
       </c>
       <c r="H85">
-        <v>60.26388706727857</v>
+        <v>60.26388706727806</v>
       </c>
       <c r="I85">
-        <v>2.073836787623701E-08</v>
+        <v>2.073836787623651E-08</v>
       </c>
       <c r="J85">
-        <v>1.001118796290398E-08</v>
+        <v>1.001118796290385E-08</v>
       </c>
       <c r="K85">
-        <v>0.0001249314406598464</v>
+        <v>0.0001249314406598477</v>
       </c>
       <c r="L85">
-        <v>0.03337107584238915</v>
+        <v>0.03337107584238941</v>
       </c>
       <c r="M85">
-        <v>334.1689980982656</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
+        <v>0.03337107584238941</v>
+      </c>
+      <c r="N85">
+        <v>334.1689980982675</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86">
-        <v>269.1488715010856</v>
+        <v>269.1488715010844</v>
       </c>
       <c r="B86">
-        <v>3920128.812097953</v>
+        <v>3920128.812097781</v>
       </c>
       <c r="C86">
-        <v>2818.927539300262</v>
+        <v>2818.927539300058</v>
       </c>
       <c r="D86">
-        <v>14665.80775009452</v>
+        <v>14665.80775009461</v>
       </c>
       <c r="E86">
-        <v>6713.244561588421</v>
+        <v>6713.244561588641</v>
       </c>
       <c r="F86">
-        <v>5589.896255334776</v>
+        <v>5589.896255334937</v>
       </c>
       <c r="G86">
-        <v>5.423762104773575</v>
+        <v>5.423762104773652</v>
       </c>
       <c r="H86">
-        <v>63.42137227456789</v>
+        <v>63.42137227456701</v>
       </c>
       <c r="I86">
-        <v>2.298397659658981E-08</v>
+        <v>2.298397659658901E-08</v>
       </c>
       <c r="J86">
-        <v>1.038189150159237E-08</v>
+        <v>1.03818915015922E-08</v>
       </c>
       <c r="K86">
-        <v>0.0001209642840044546</v>
+        <v>0.0001209642840044562</v>
       </c>
       <c r="L86">
-        <v>0.03258051676610027</v>
+        <v>0.0325805167661006</v>
       </c>
       <c r="M86">
-        <v>326.075156288503</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>0.0325805167661006</v>
+      </c>
+      <c r="N86">
+        <v>326.0751562885051</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87">
-        <v>271.2173401203186</v>
+        <v>271.2173401203174</v>
       </c>
       <c r="B87">
-        <v>4103267.942514916</v>
+        <v>4103267.942514892</v>
       </c>
       <c r="C87">
-        <v>2995.001479947614</v>
+        <v>2995.001479947642</v>
       </c>
       <c r="D87">
-        <v>14446.52042112697</v>
+        <v>14446.52042112712</v>
       </c>
       <c r="E87">
-        <v>6463.849937850904</v>
+        <v>6463.849937850936</v>
       </c>
       <c r="F87">
-        <v>5377.842809623344</v>
+        <v>5377.842809623386</v>
       </c>
       <c r="G87">
-        <v>5.407151072757257</v>
+        <v>5.407151072757208</v>
       </c>
       <c r="H87">
-        <v>66.99211635491181</v>
+        <v>66.99211635490894</v>
       </c>
       <c r="I87">
-        <v>2.561761001271118E-08</v>
+        <v>2.561761001270914E-08</v>
       </c>
       <c r="J87">
-        <v>1.077324291655516E-08</v>
+        <v>1.07732429165549E-08</v>
       </c>
       <c r="K87">
-        <v>0.0001170398369884777</v>
+        <v>0.0001170398369884803</v>
       </c>
       <c r="L87">
-        <v>0.03179630949770041</v>
+        <v>0.03179630949770093</v>
       </c>
       <c r="M87">
-        <v>317.871848384642</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>0.03179630949770093</v>
+      </c>
+      <c r="N87">
+        <v>317.8718483846482</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88">
-        <v>273.2858087395515</v>
+        <v>273.2858087395503</v>
       </c>
       <c r="B88">
-        <v>4292695.951200409</v>
+        <v>4292695.951200349</v>
       </c>
       <c r="C88">
-        <v>3184.00387642024</v>
+        <v>3184.003876420214</v>
       </c>
       <c r="D88">
-        <v>14219.78992502639</v>
+        <v>14219.78992502653</v>
       </c>
       <c r="E88">
-        <v>6203.003244195351</v>
+        <v>6203.003244195408</v>
       </c>
       <c r="F88">
-        <v>5156.678170374891</v>
+        <v>5156.67817037495</v>
       </c>
       <c r="G88">
-        <v>5.395513866005349</v>
+        <v>5.395513866005351</v>
       </c>
       <c r="H88">
-        <v>71.07118605765461</v>
+        <v>71.0711860576517</v>
       </c>
       <c r="I88">
-        <v>2.873786389611837E-08</v>
+        <v>2.873786389611622E-08</v>
       </c>
       <c r="J88">
-        <v>1.118737272477045E-08</v>
+        <v>1.11873727247702E-08</v>
       </c>
       <c r="K88">
-        <v>0.0001131539804995025</v>
+        <v>0.0001131539804995048</v>
       </c>
       <c r="L88">
-        <v>0.03101943394453104</v>
+        <v>0.0310194339445315</v>
       </c>
       <c r="M88">
-        <v>309.5522581975719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>0.0310194339445315</v>
+      </c>
+      <c r="N88">
+        <v>309.552258197577</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89">
-        <v>275.3542773587845</v>
+        <v>275.3542773587833</v>
       </c>
       <c r="B89">
-        <v>4488546.229084021</v>
+        <v>4488546.229083819</v>
       </c>
       <c r="C89">
-        <v>3386.997901733235</v>
+        <v>3386.997901732954</v>
       </c>
       <c r="D89">
-        <v>13984.93340468594</v>
+        <v>13984.93340468602</v>
       </c>
       <c r="E89">
-        <v>5930.120568511556</v>
+        <v>5930.120568511821</v>
       </c>
       <c r="F89">
-        <v>4925.847897743995</v>
+        <v>4925.847897744192</v>
       </c>
       <c r="G89">
-        <v>5.389432597795</v>
+        <v>5.389432597795015</v>
       </c>
       <c r="H89">
-        <v>75.78571506561862</v>
+        <v>75.78571506561772</v>
       </c>
       <c r="I89">
-        <v>3.247839166393131E-08</v>
+        <v>3.247839166393028E-08</v>
       </c>
       <c r="J89">
-        <v>1.162679608257903E-08</v>
+        <v>1.162679608257886E-08</v>
       </c>
       <c r="K89">
-        <v>0.0001093022328605433</v>
+        <v>0.0001093022328605445</v>
       </c>
       <c r="L89">
-        <v>0.03025063106972645</v>
+        <v>0.03025063106972673</v>
       </c>
       <c r="M89">
-        <v>301.1082508461882</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>0.03025063106972673</v>
+      </c>
+      <c r="N89">
+        <v>301.1082508461906</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90">
-        <v>277.4227459780175</v>
+        <v>277.4227459780163</v>
       </c>
       <c r="B90">
-        <v>4690933.338651986</v>
+        <v>4690933.338651916</v>
       </c>
       <c r="C90">
-        <v>3605.056058611522</v>
+        <v>3605.056058611491</v>
       </c>
       <c r="D90">
-        <v>13741.11826838701</v>
+        <v>13741.11826838721</v>
       </c>
       <c r="E90">
-        <v>5644.635367559135</v>
+        <v>5644.63536755925</v>
       </c>
       <c r="F90">
-        <v>4684.805126956669</v>
+        <v>4684.805126956786</v>
       </c>
       <c r="G90">
-        <v>5.389569305110742</v>
+        <v>5.389569305110688</v>
       </c>
       <c r="H90">
-        <v>81.30944600200314</v>
+        <v>81.309446001997</v>
       </c>
       <c r="I90">
-        <v>3.702463240766982E-08</v>
+        <v>3.702463240766519E-08</v>
       </c>
       <c r="J90">
-        <v>1.209453503430827E-08</v>
+        <v>1.209453503430791E-08</v>
       </c>
       <c r="K90">
-        <v>0.0001054794595006698</v>
+        <v>0.0001054794595006728</v>
       </c>
       <c r="L90">
-        <v>0.02949030572012417</v>
+        <v>0.02949030572012476</v>
       </c>
       <c r="M90">
-        <v>292.529878224226</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>0.02949030572012476</v>
+      </c>
+      <c r="N90">
+        <v>292.5298782242338</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91">
-        <v>279.4912145972505</v>
+        <v>279.4912145972493</v>
       </c>
       <c r="B91">
-        <v>4899944.631763415</v>
+        <v>4899944.631763259</v>
       </c>
       <c r="C91">
-        <v>3839.254277213117</v>
+        <v>3839.25427721291</v>
       </c>
       <c r="D91">
-        <v>13487.30615095393</v>
+        <v>13487.30615095406</v>
       </c>
       <c r="E91">
-        <v>5345.970734480134</v>
+        <v>5345.970734480334</v>
       </c>
       <c r="F91">
-        <v>4432.996103367484</v>
+        <v>4432.996103367643</v>
       </c>
       <c r="G91">
-        <v>5.396690448892793</v>
+        <v>5.396690448892781</v>
       </c>
       <c r="H91">
-        <v>87.88598364549094</v>
+        <v>87.88598364548733</v>
       </c>
       <c r="I91">
-        <v>4.264097830035257E-08</v>
+        <v>4.264097830034948E-08</v>
       </c>
       <c r="J91">
-        <v>1.259429601763139E-08</v>
+        <v>1.259429601763113E-08</v>
       </c>
       <c r="K91">
-        <v>0.000101679447185256</v>
+        <v>0.0001016794471852579</v>
       </c>
       <c r="L91">
-        <v>0.02873840739588084</v>
+        <v>0.0287384073958812</v>
       </c>
       <c r="M91">
-        <v>283.8046409966857</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>0.0287384073958812</v>
+      </c>
+      <c r="N91">
+        <v>283.80464099669</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92">
-        <v>281.5596832164834</v>
+        <v>281.5596832164822</v>
       </c>
       <c r="B92">
-        <v>5115631.358883541</v>
+        <v>5115631.358883437</v>
       </c>
       <c r="C92">
-        <v>4090.700598089754</v>
+        <v>4090.700598089663</v>
       </c>
       <c r="D92">
-        <v>13222.16966888651</v>
+        <v>13222.1696688867</v>
       </c>
       <c r="E92">
-        <v>5033.463886831923</v>
+        <v>5033.463886832083</v>
       </c>
       <c r="F92">
-        <v>4169.810514186546</v>
+        <v>4169.810514186695</v>
       </c>
       <c r="G92">
-        <v>5.41170401803822</v>
+        <v>5.411704018038192</v>
       </c>
       <c r="H92">
-        <v>95.86754597184837</v>
+        <v>95.86754597184004</v>
       </c>
       <c r="I92">
-        <v>4.971677535155449E-08</v>
+        <v>4.971677535154767E-08</v>
       </c>
       <c r="J92">
-        <v>1.313073456007065E-08</v>
+        <v>1.313073456007026E-08</v>
       </c>
       <c r="K92">
-        <v>9.789427912226403E-05</v>
+        <v>9.789427912226685E-05</v>
       </c>
       <c r="L92">
-        <v>0.02799427706060546</v>
+        <v>0.02799427706060598</v>
       </c>
       <c r="M92">
-        <v>274.9163811203218</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>0.02799427706060598</v>
+      </c>
+      <c r="N92">
+        <v>274.916381120329</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93">
-        <v>283.6281518357164</v>
+        <v>283.6281518357152</v>
       </c>
       <c r="B93">
-        <v>5338000.458757975</v>
+        <v>5338000.45875777</v>
       </c>
       <c r="C93">
-        <v>4360.631400890367</v>
+        <v>4360.631400890021</v>
       </c>
       <c r="D93">
-        <v>12943.96524833376</v>
+        <v>12943.96524833386</v>
       </c>
       <c r="E93">
-        <v>4706.213744306568</v>
+        <v>4706.213744306869</v>
       </c>
       <c r="F93">
-        <v>3894.47197206134</v>
+        <v>3894.471972061571</v>
       </c>
       <c r="G93">
-        <v>5.435716907384628</v>
+        <v>5.435716907384691</v>
       </c>
       <c r="H93">
-        <v>105.7827890088068</v>
+        <v>105.7827890088055</v>
       </c>
       <c r="I93">
-        <v>5.884817959622515E-08</v>
+        <v>5.884817959622309E-08</v>
       </c>
       <c r="J93">
-        <v>1.370986268059335E-08</v>
+        <v>1.370986268059314E-08</v>
       </c>
       <c r="K93">
-        <v>9.411340406509765E-05</v>
+        <v>9.411340406509891E-05</v>
       </c>
       <c r="L93">
-        <v>0.02725643863960737</v>
+        <v>0.02725643863960763</v>
       </c>
       <c r="M93">
-        <v>265.8436007912678</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>0.02725643863960763</v>
+      </c>
+      <c r="N93">
+        <v>265.8436007912696</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94">
-        <v>285.6966204549494</v>
+        <v>285.6966204549482</v>
       </c>
       <c r="B94">
-        <v>5567008.549922223</v>
+        <v>5567008.549922069</v>
       </c>
       <c r="C94">
-        <v>4650.621384643728</v>
+        <v>4650.621384643476</v>
       </c>
       <c r="D94">
-        <v>12650.33147109832</v>
+        <v>12650.33147109846</v>
       </c>
       <c r="E94">
-        <v>4362.813049463784</v>
+        <v>4362.81304946405</v>
       </c>
       <c r="F94">
-        <v>3605.835068350485</v>
+        <v>3605.835068350702</v>
       </c>
       <c r="G94">
-        <v>5.470126113685665</v>
+        <v>5.470126113685685</v>
       </c>
       <c r="H94">
-        <v>118.4627951556821</v>
+        <v>118.4627951556774</v>
       </c>
       <c r="I94">
-        <v>7.099287221144329E-08</v>
+        <v>7.099287221143804E-08</v>
       </c>
       <c r="J94">
-        <v>1.433970117804762E-08</v>
+        <v>1.433970117804731E-08</v>
       </c>
       <c r="K94">
-        <v>9.032220394698303E-05</v>
+        <v>9.032220394698474E-05</v>
       </c>
       <c r="L94">
-        <v>0.02652229520945053</v>
+        <v>0.02652229520945085</v>
       </c>
       <c r="M94">
-        <v>256.556845380605</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>0.02652229520945085</v>
+      </c>
+      <c r="N94">
+        <v>256.5568453806087</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95">
-        <v>287.7650890741824</v>
+        <v>287.7650890741811</v>
       </c>
       <c r="B95">
-        <v>5802559.593300911</v>
+        <v>5802559.593300679</v>
       </c>
       <c r="C95">
-        <v>4962.975003705762</v>
+        <v>4962.975003705293</v>
       </c>
       <c r="D95">
-        <v>12337.95268769614</v>
+        <v>12337.95268769628</v>
       </c>
       <c r="E95">
-        <v>4000.905843512563</v>
+        <v>4000.905843512932</v>
       </c>
       <c r="F95">
-        <v>3302.037881715008</v>
+        <v>3302.037881715292</v>
       </c>
       <c r="G95">
-        <v>5.516769593266709</v>
+        <v>5.516769593266711</v>
       </c>
       <c r="H95">
-        <v>135.2930953660929</v>
+        <v>135.2930953660869</v>
       </c>
       <c r="I95">
-        <v>8.778529332539854E-08</v>
+        <v>8.778529332539175E-08</v>
       </c>
       <c r="J95">
-        <v>1.503137884149494E-08</v>
+        <v>1.503137884149461E-08</v>
       </c>
       <c r="K95">
-        <v>8.649966943463954E-05</v>
+        <v>8.649966943464113E-05</v>
       </c>
       <c r="L95">
-        <v>0.02578765054808164</v>
+        <v>0.02578765054808197</v>
       </c>
       <c r="M95">
-        <v>247.0144354147308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>0.02578765054808197</v>
+      </c>
+      <c r="N95">
+        <v>247.0144354147342</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96">
-        <v>289.8335576934153</v>
+        <v>289.8335576934141</v>
       </c>
       <c r="B96">
-        <v>6044507.125334016</v>
+        <v>6044507.125333858</v>
       </c>
       <c r="C96">
-        <v>5301.422593557028</v>
+        <v>5301.422593556759</v>
       </c>
       <c r="D96">
-        <v>12001.95783255386</v>
+        <v>12001.957832554</v>
       </c>
       <c r="E96">
-        <v>3616.449804506405</v>
+        <v>3616.449804506653</v>
       </c>
       <c r="F96">
-        <v>2979.909557677262</v>
+        <v>2979.909557677458</v>
       </c>
       <c r="G96">
-        <v>5.578191016946428</v>
+        <v>5.578191016946429</v>
       </c>
       <c r="H96">
-        <v>158.7681917062863</v>
+        <v>158.76819170628</v>
       </c>
       <c r="I96">
-        <v>1.122440457711536E-07</v>
+        <v>1.122440457711456E-07</v>
       </c>
       <c r="J96">
-        <v>1.580111509249033E-08</v>
+        <v>1.580111509248999E-08</v>
       </c>
       <c r="K96">
-        <v>8.261432818623189E-05</v>
+        <v>8.261432818623342E-05</v>
       </c>
       <c r="L96">
-        <v>0.02504588670528934</v>
+        <v>0.02504588670528965</v>
       </c>
       <c r="M96">
-        <v>237.1549829039063</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>0.02504588670528965</v>
+      </c>
+      <c r="N96">
+        <v>237.1549829039093</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97">
-        <v>291.9020263126483</v>
+        <v>291.902026312647</v>
       </c>
       <c r="B97">
-        <v>6292660.993811742</v>
+        <v>6292660.993811541</v>
       </c>
       <c r="C97">
-        <v>5672.41476214513</v>
+        <v>5672.41476214472</v>
       </c>
       <c r="D97">
-        <v>11634.74023467762</v>
+        <v>11634.74023467783</v>
       </c>
       <c r="E97">
-        <v>3202.376179025659</v>
+        <v>3202.376179026011</v>
       </c>
       <c r="F97">
-        <v>2633.88288609453</v>
+        <v>2633.882886094812</v>
       </c>
       <c r="G97">
-        <v>5.658146221605046</v>
+        <v>5.658146221605012</v>
       </c>
       <c r="H97">
-        <v>193.878037739889</v>
+        <v>193.8780377398671</v>
       </c>
       <c r="I97">
-        <v>1.505788516779242E-07</v>
+        <v>1.505788516778991E-07</v>
       </c>
       <c r="J97">
-        <v>1.667414209534655E-08</v>
+        <v>1.667414209534606E-08</v>
       </c>
       <c r="K97">
-        <v>7.861634086304023E-05</v>
+        <v>7.861634086304239E-05</v>
       </c>
       <c r="L97">
-        <v>0.02428639764598024</v>
+        <v>0.02428639764598066</v>
       </c>
       <c r="M97">
-        <v>226.8828640342236</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>0.02428639764598066</v>
+      </c>
+      <c r="N97">
+        <v>226.882864034229</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98">
-        <v>293.9704949318813</v>
+        <v>293.97049493188</v>
       </c>
       <c r="B98">
-        <v>6546797.530582615</v>
+        <v>6546797.530582637</v>
       </c>
       <c r="C98">
-        <v>6087.872760945595</v>
+        <v>6087.872760946223</v>
       </c>
       <c r="D98">
-        <v>11223.31441431451</v>
+        <v>11223.31441431517</v>
       </c>
       <c r="E98">
-        <v>2745.737184265946</v>
+        <v>2745.737184265888</v>
       </c>
       <c r="F98">
-        <v>2253.674974366315</v>
+        <v>2253.674974366332</v>
       </c>
       <c r="G98">
-        <v>5.762702147645025</v>
+        <v>5.762702147644718</v>
       </c>
       <c r="H98">
-        <v>252.2680759816741</v>
+        <v>252.2680759815076</v>
       </c>
       <c r="I98">
-        <v>2.177425789876598E-07</v>
+        <v>2.17742578987478E-07</v>
       </c>
       <c r="J98">
-        <v>1.769354610572153E-08</v>
+        <v>1.769354610571995E-08</v>
       </c>
       <c r="K98">
-        <v>7.441987262119566E-05</v>
+        <v>7.441987262120234E-05</v>
       </c>
       <c r="L98">
-        <v>0.02349118295318772</v>
+        <v>0.02349118295318887</v>
       </c>
       <c r="M98">
-        <v>216.0358034406236</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>0.02349118295318887</v>
+      </c>
+      <c r="N98">
+        <v>216.0358034406434</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99">
-        <v>296.0389635511143</v>
+        <v>296.038963551113</v>
       </c>
       <c r="B99">
-        <v>6806671.473216621</v>
+        <v>6806671.47321636</v>
       </c>
       <c r="C99">
-        <v>6572.500855490566</v>
+        <v>6572.500855489573</v>
       </c>
       <c r="D99">
-        <v>10742.08279585738</v>
+        <v>10742.08279585745</v>
       </c>
       <c r="E99">
-        <v>2220.055304935129</v>
+        <v>2220.055304935769</v>
       </c>
       <c r="F99">
-        <v>1818.071870876421</v>
+        <v>1818.071870876916</v>
       </c>
       <c r="G99">
-        <v>5.903135987683294</v>
+        <v>5.903135987683362</v>
       </c>
       <c r="H99">
-        <v>368.8813870753445</v>
+        <v>368.8813870753776</v>
       </c>
       <c r="I99">
-        <v>3.602639136651108E-07</v>
+        <v>3.602639136651378E-07</v>
       </c>
       <c r="J99">
-        <v>1.894461253357736E-08</v>
+        <v>1.89446125335771E-08</v>
       </c>
       <c r="K99">
-        <v>6.985484680316941E-05</v>
+        <v>6.985484680317E-05</v>
       </c>
       <c r="L99">
-        <v>0.02262581476751703</v>
+        <v>0.02262581476751722</v>
       </c>
       <c r="M99">
-        <v>204.2960821277747</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>0.02262581476751722</v>
+      </c>
+      <c r="N99">
+        <v>204.2960821277746</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100">
-        <v>298.1074321703473</v>
+        <v>298.1074321703459</v>
       </c>
       <c r="B100">
-        <v>7072027.888238618</v>
+        <v>7072027.88823842</v>
       </c>
       <c r="C100">
-        <v>7192.261488425644</v>
+        <v>7192.261488424981</v>
       </c>
       <c r="D100">
-        <v>10124.40254000934</v>
+        <v>10124.4025400094</v>
       </c>
       <c r="E100">
-        <v>1555.35239894789</v>
+        <v>1555.352398948293</v>
       </c>
       <c r="F100">
-        <v>1270.582585821779</v>
+        <v>1270.582585822091</v>
       </c>
       <c r="G100">
-        <v>6.106847634740145</v>
+        <v>6.106847634740213</v>
       </c>
       <c r="H100">
-        <v>718.4296882377336</v>
+        <v>718.4296882379101</v>
       </c>
       <c r="I100">
-        <v>8.218791785268602E-07</v>
+        <v>8.218791785270572E-07</v>
       </c>
       <c r="J100">
-        <v>2.065119313198276E-08</v>
+        <v>2.065119313198253E-08</v>
       </c>
       <c r="K100">
-        <v>6.447685470306743E-05</v>
+        <v>6.44768547030678E-05</v>
       </c>
       <c r="L100">
-        <v>0.02160499011964</v>
+        <v>0.02160499011964018</v>
       </c>
       <c r="M100">
-        <v>190.8404128180915</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>0.02160499011964018</v>
+      </c>
+      <c r="N100">
+        <v>190.8404128180906</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101">
-        <v>300.1759007895803</v>
+        <v>300.1759007895789</v>
       </c>
       <c r="B101">
-        <v>7342611.22778729</v>
+        <v>7342611.227207751</v>
       </c>
       <c r="C101">
-        <v>8688.117596116927</v>
+        <v>8688.173535711823</v>
       </c>
       <c r="D101">
-        <v>8692.890313182881</v>
+        <v>8692.837065366983</v>
       </c>
       <c r="E101">
-        <v>2.519306824706676</v>
+        <v>2.461671441259909</v>
       </c>
       <c r="F101">
-        <v>2.055297901114536</v>
+        <v>2.008277982597594</v>
       </c>
       <c r="G101">
-        <v>6.618651753815492</v>
+        <v>6.618670257316125</v>
       </c>
       <c r="H101">
-        <v>6366483.702065602</v>
+        <v>6518896.800227421</v>
       </c>
       <c r="I101">
-        <v>0.01044367853725975</v>
+        <v>0.01069384020353247</v>
       </c>
       <c r="J101">
-        <v>2.513330228447775E-08</v>
+        <v>2.513348532806968E-08</v>
       </c>
       <c r="K101">
-        <v>5.373495154921608E-05</v>
+        <v>5.373459043899438E-05</v>
       </c>
       <c r="L101">
-        <v>0.01961293081272415</v>
+        <v>0.01961286681154653</v>
       </c>
       <c r="M101">
-        <v>167.2684355319535</v>
+        <v>0.01961286681154653</v>
+      </c>
+      <c r="N101">
+        <v>167.2677587581926</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
